--- a/raw_data/20200818_saline/20200818_Sensor0_Test_70.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_70.xlsx
@@ -1,780 +1,1196 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6360BBA9-C68B-4806-967C-6D170E737527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>62102.960840</v>
+        <v>62102.96084</v>
       </c>
       <c r="B2" s="1">
-        <v>17.250822</v>
+        <v>17.250821999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>902.028000</v>
+        <v>902.02800000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-183.846000</v>
+        <v>-183.846</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>62113.115968</v>
+        <v>62113.115967999998</v>
       </c>
       <c r="G2" s="1">
         <v>17.253643</v>
       </c>
       <c r="H2" s="1">
-        <v>917.428000</v>
+        <v>917.428</v>
       </c>
       <c r="I2" s="1">
-        <v>-156.445000</v>
+        <v>-156.44499999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>62123.238286</v>
       </c>
       <c r="L2" s="1">
-        <v>17.256455</v>
+        <v>17.256454999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>938.475000</v>
+        <v>938.47500000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-114.390000</v>
+        <v>-114.39</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>62133.441489</v>
+        <v>62133.441488999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>17.259289</v>
+        <v>17.259288999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>945.091000</v>
+        <v>945.09100000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-100.444000</v>
+        <v>-100.444</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>62143.683380</v>
+        <v>62143.683380000002</v>
       </c>
       <c r="V2" s="1">
         <v>17.262134</v>
       </c>
       <c r="W2" s="1">
-        <v>951.377000</v>
+        <v>951.37699999999995</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.362500</v>
+        <v>-87.362499999999997</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>62154.108989</v>
       </c>
       <c r="AA2" s="1">
-        <v>17.265030</v>
+        <v>17.265029999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>959.276000</v>
+        <v>959.27599999999995</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.270100</v>
+        <v>-79.270099999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>62164.699862</v>
+        <v>62164.699862000001</v>
       </c>
       <c r="AF2" s="1">
         <v>17.267972</v>
       </c>
       <c r="AG2" s="1">
-        <v>964.685000</v>
+        <v>964.68499999999995</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.214300</v>
+        <v>-79.214299999999994</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>62175.148088</v>
+        <v>62175.148088000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>17.270874</v>
+        <v>17.270873999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.898000</v>
+        <v>972.89800000000002</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.298200</v>
+        <v>-87.298199999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>62185.695019</v>
+        <v>62185.695018999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>17.273804</v>
+        <v>17.273803999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.241000</v>
+        <v>982.24099999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.311000</v>
+        <v>-102.31100000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>62196.690370</v>
+        <v>62196.690369999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>17.276858</v>
+        <v>17.276858000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>993.644000</v>
+        <v>993.64400000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.827000</v>
+        <v>-123.827</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>62207.835437</v>
+        <v>62207.835437000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>17.279954</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.300000</v>
+        <v>1003.3</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.576000</v>
+        <v>-142.57599999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>62219.096607</v>
+        <v>62219.096606999999</v>
       </c>
       <c r="BE2" s="1">
         <v>17.283082</v>
       </c>
       <c r="BF2" s="1">
-        <v>1048.640000</v>
+        <v>1048.6400000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-227.400000</v>
+        <v>-227.4</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>62230.035571</v>
       </c>
       <c r="BJ2" s="1">
-        <v>17.286121</v>
+        <v>17.286121000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1128.600000</v>
+        <v>1128.5999999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-363.069000</v>
+        <v>-363.06900000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>62240.815922</v>
+        <v>62240.815922000002</v>
       </c>
       <c r="BO2" s="1">
         <v>17.289116</v>
       </c>
       <c r="BP2" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-571.664000</v>
+        <v>-571.66399999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>62251.983602</v>
       </c>
       <c r="BT2" s="1">
-        <v>17.292218</v>
+        <v>17.292217999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1408.340000</v>
+        <v>1408.34</v>
       </c>
       <c r="BV2" s="1">
-        <v>-793.524000</v>
+        <v>-793.524</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>62262.622070</v>
+        <v>62262.622069999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>17.295173</v>
+        <v>17.295172999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1570.030000</v>
+        <v>1570.03</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1024.370000</v>
+        <v>-1024.3699999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>62274.212053</v>
+        <v>62274.212053000003</v>
       </c>
       <c r="CD2" s="1">
         <v>17.298392</v>
       </c>
       <c r="CE2" s="1">
-        <v>1975.520000</v>
+        <v>1975.52</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1564.340000</v>
+        <v>-1564.34</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>62103.357143</v>
+        <v>62103.357143000001</v>
       </c>
       <c r="B3" s="1">
         <v>17.250933</v>
       </c>
       <c r="C3" s="1">
-        <v>901.840000</v>
+        <v>901.84</v>
       </c>
       <c r="D3" s="1">
-        <v>-183.744000</v>
+        <v>-183.744</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>62113.466143</v>
+        <v>62113.466142999998</v>
       </c>
       <c r="G3" s="1">
-        <v>17.253741</v>
+        <v>17.253741000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>916.793000</v>
+        <v>916.79300000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-157.140000</v>
+        <v>-157.13999999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>62123.620702</v>
       </c>
       <c r="L3" s="1">
-        <v>17.256561</v>
+        <v>17.256561000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>938.408000</v>
+        <v>938.40800000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>-114.278000</v>
+        <v>-114.27800000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>62133.829393</v>
@@ -783,662 +1199,662 @@
         <v>17.259397</v>
       </c>
       <c r="R3" s="1">
-        <v>945.103000</v>
+        <v>945.10299999999995</v>
       </c>
       <c r="S3" s="1">
-        <v>-100.463000</v>
+        <v>-100.46299999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>62144.107954</v>
+        <v>62144.107953999999</v>
       </c>
       <c r="V3" s="1">
         <v>17.262252</v>
       </c>
       <c r="W3" s="1">
-        <v>951.454000</v>
+        <v>951.45399999999995</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.441900</v>
+        <v>-87.441900000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>62154.529891</v>
+        <v>62154.529890999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>17.265147</v>
+        <v>17.265146999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>959.187000</v>
+        <v>959.18700000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.220600</v>
+        <v>-79.220600000000005</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>62165.091353</v>
+        <v>62165.091353000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>17.268081</v>
+        <v>17.268080999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>964.479000</v>
+        <v>964.47900000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.202800</v>
+        <v>-79.202799999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>62175.509210</v>
+        <v>62175.509209999997</v>
       </c>
       <c r="AK3" s="1">
         <v>17.270975</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.908000</v>
+        <v>972.90800000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.301600</v>
+        <v>-87.301599999999993</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>62186.082423</v>
       </c>
       <c r="AP3" s="1">
-        <v>17.273912</v>
+        <v>17.273911999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.247000</v>
+        <v>982.24699999999996</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.292000</v>
+        <v>-102.292</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>62197.079691</v>
+        <v>62197.079690999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>17.276967</v>
+        <v>17.276966999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>993.659000</v>
+        <v>993.65899999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.825000</v>
+        <v>-123.825</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>62208.541275</v>
+        <v>62208.541275000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>17.280150</v>
+        <v>17.280149999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.560000</v>
+        <v>-142.56</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>62219.483022</v>
       </c>
       <c r="BE3" s="1">
-        <v>17.283190</v>
+        <v>17.283190000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1048.650000</v>
+        <v>1048.6500000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-227.392000</v>
+        <v>-227.392</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>62230.446592</v>
       </c>
       <c r="BJ3" s="1">
-        <v>17.286235</v>
+        <v>17.286235000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1128.580000</v>
+        <v>1128.58</v>
       </c>
       <c r="BL3" s="1">
-        <v>-363.172000</v>
+        <v>-363.17200000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>62241.224165</v>
       </c>
       <c r="BO3" s="1">
-        <v>17.289229</v>
+        <v>17.289228999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1260.780000</v>
+        <v>1260.78</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-571.655000</v>
+        <v>-571.65499999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>62252.724866</v>
+        <v>62252.724865999997</v>
       </c>
       <c r="BT3" s="1">
         <v>17.292424</v>
       </c>
       <c r="BU3" s="1">
-        <v>1408.330000</v>
+        <v>1408.33</v>
       </c>
       <c r="BV3" s="1">
-        <v>-793.568000</v>
+        <v>-793.56799999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>62263.410218</v>
+        <v>62263.410217999997</v>
       </c>
       <c r="BY3" s="1">
         <v>17.295392</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1570.120000</v>
+        <v>1570.12</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1024.330000</v>
+        <v>-1024.33</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>62274.500725</v>
+        <v>62274.500724999998</v>
       </c>
       <c r="CD3" s="1">
         <v>17.298472</v>
       </c>
       <c r="CE3" s="1">
-        <v>1976.050000</v>
+        <v>1976.05</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1562.990000</v>
+        <v>-1562.99</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>62103.699415</v>
+        <v>62103.699415000003</v>
       </c>
       <c r="B4" s="1">
-        <v>17.251028</v>
+        <v>17.251028000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>901.874000</v>
+        <v>901.87400000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-183.968000</v>
+        <v>-183.96799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>62113.810859</v>
+        <v>62113.810858999997</v>
       </c>
       <c r="G4" s="1">
         <v>17.253836</v>
       </c>
       <c r="H4" s="1">
-        <v>917.314000</v>
+        <v>917.31399999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-156.892000</v>
+        <v>-156.892</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>62124.038830</v>
+        <v>62124.038829999998</v>
       </c>
       <c r="L4" s="1">
         <v>17.256677</v>
       </c>
       <c r="M4" s="1">
-        <v>938.378000</v>
+        <v>938.37800000000004</v>
       </c>
       <c r="N4" s="1">
-        <v>-114.248000</v>
+        <v>-114.248</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>62134.267326</v>
+        <v>62134.267326000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>17.259519</v>
+        <v>17.259519000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>945.091000</v>
+        <v>945.09100000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-100.464000</v>
+        <v>-100.464</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>62144.410529</v>
+        <v>62144.410529000001</v>
       </c>
       <c r="V4" s="1">
-        <v>17.262336</v>
+        <v>17.262336000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>951.362000</v>
+        <v>951.36199999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.415100</v>
+        <v>-87.415099999999995</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>62154.879077</v>
+        <v>62154.879076999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>17.265244</v>
+        <v>17.265243999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>959.284000</v>
+        <v>959.28399999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.216200</v>
+        <v>-79.216200000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>62165.431461</v>
       </c>
       <c r="AF4" s="1">
-        <v>17.268175</v>
+        <v>17.268174999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>964.595000</v>
+        <v>964.59500000000003</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.277300</v>
+        <v>-79.277299999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>62175.865799</v>
+        <v>62175.865798999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>17.271074</v>
+        <v>17.271073999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.882000</v>
+        <v>972.88199999999995</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.280900</v>
+        <v>-87.280900000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>62186.805562</v>
+        <v>62186.805562000001</v>
       </c>
       <c r="AP4" s="1">
         <v>17.274113</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.237000</v>
+        <v>982.23699999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.275000</v>
+        <v>-102.27500000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>62197.826668</v>
+        <v>62197.826668000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>17.277174</v>
+        <v>17.277173999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>993.666000</v>
+        <v>993.66600000000005</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.817000</v>
+        <v>-123.81699999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>62208.899388</v>
+        <v>62208.899387999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>17.280250</v>
+        <v>17.280249999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.582000</v>
+        <v>-142.58199999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>62219.843118</v>
+        <v>62219.843117999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>17.283290</v>
+        <v>17.283290000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1048.650000</v>
+        <v>1048.6500000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-227.385000</v>
+        <v>-227.38499999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>62230.819589</v>
+        <v>62230.819588999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>17.286339</v>
+        <v>17.286339000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1128.510000</v>
+        <v>1128.51</v>
       </c>
       <c r="BL4" s="1">
-        <v>-363.141000</v>
+        <v>-363.14100000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>62241.959200</v>
+        <v>62241.959199999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>17.289433</v>
+        <v>17.289432999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-571.684000</v>
+        <v>-571.68399999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>62252.840434</v>
+        <v>62252.840433999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>17.292456</v>
+        <v>17.292456000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1408.340000</v>
+        <v>1408.34</v>
       </c>
       <c r="BV4" s="1">
-        <v>-793.695000</v>
+        <v>-793.69500000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>62263.524296</v>
+        <v>62263.524296000003</v>
       </c>
       <c r="BY4" s="1">
         <v>17.295423</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1570.080000</v>
+        <v>1570.08</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1024.430000</v>
+        <v>-1024.43</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>62275.019044</v>
+        <v>62275.019044000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>17.298616</v>
+        <v>17.298615999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1975.290000</v>
+        <v>1975.29</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1562.610000</v>
+        <v>-1562.61</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>62104.125942</v>
+        <v>62104.125941999999</v>
       </c>
       <c r="B5" s="1">
-        <v>17.251146</v>
+        <v>17.251145999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>902.030000</v>
+        <v>902.03</v>
       </c>
       <c r="D5" s="1">
-        <v>-183.861000</v>
+        <v>-183.86099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>62114.226969</v>
+        <v>62114.226969000003</v>
       </c>
       <c r="G5" s="1">
-        <v>17.253952</v>
+        <v>17.253952000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>917.298000</v>
+        <v>917.298</v>
       </c>
       <c r="I5" s="1">
-        <v>-157.076000</v>
+        <v>-157.07599999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>62124.336429</v>
+        <v>62124.336429000003</v>
       </c>
       <c r="L5" s="1">
-        <v>17.256760</v>
+        <v>17.25676</v>
       </c>
       <c r="M5" s="1">
-        <v>938.452000</v>
+        <v>938.452</v>
       </c>
       <c r="N5" s="1">
-        <v>-114.313000</v>
+        <v>-114.313</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>62134.545086</v>
+        <v>62134.545085999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>17.259596</v>
+        <v>17.259595999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>945.130000</v>
+        <v>945.13</v>
       </c>
       <c r="S5" s="1">
-        <v>-100.483000</v>
+        <v>-100.483</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>62144.753745</v>
+        <v>62144.753745000002</v>
       </c>
       <c r="V5" s="1">
         <v>17.262432</v>
       </c>
       <c r="W5" s="1">
-        <v>951.455000</v>
+        <v>951.45500000000004</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.413700</v>
+        <v>-87.413700000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>62155.226771</v>
+        <v>62155.226771000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>17.265341</v>
+        <v>17.265340999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>959.256000</v>
+        <v>959.25599999999997</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.196000</v>
+        <v>-79.195999999999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>62165.779189</v>
+        <v>62165.779189000001</v>
       </c>
       <c r="AF5" s="1">
         <v>17.268272</v>
       </c>
       <c r="AG5" s="1">
-        <v>964.552000</v>
+        <v>964.55200000000002</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.213100</v>
+        <v>-79.213099999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>62176.555239</v>
+        <v>62176.555239000001</v>
       </c>
       <c r="AK5" s="1">
         <v>17.271265</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.874000</v>
+        <v>972.87400000000002</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.311500</v>
+        <v>-87.311499999999995</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>62187.181070</v>
+        <v>62187.181069999999</v>
       </c>
       <c r="AP5" s="1">
         <v>17.274217</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.234000</v>
+        <v>982.23400000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.305000</v>
+        <v>-102.30500000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>62198.190731</v>
+        <v>62198.190731000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>17.277275</v>
+        <v>17.277274999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>993.669000</v>
+        <v>993.66899999999998</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.821000</v>
+        <v>-123.821</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>62209.261467</v>
+        <v>62209.261466999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>17.280350</v>
+        <v>17.280349999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.300000</v>
+        <v>1003.3</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.563000</v>
+        <v>-142.56299999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>62220.519671</v>
+        <v>62220.519671000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>17.283478</v>
+        <v>17.283477999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1048.620000</v>
+        <v>1048.6199999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-227.375000</v>
+        <v>-227.375</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>62231.511967</v>
+        <v>62231.511966999999</v>
       </c>
       <c r="BJ5" s="1">
         <v>17.286531</v>
       </c>
       <c r="BK5" s="1">
-        <v>1128.620000</v>
+        <v>1128.6199999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-363.145000</v>
+        <v>-363.14499999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>62242.460689</v>
@@ -1447,150 +1863,150 @@
         <v>17.289572</v>
       </c>
       <c r="BP5" s="1">
-        <v>1260.830000</v>
+        <v>1260.83</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-571.700000</v>
+        <v>-571.70000000000005</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>62253.255091</v>
+        <v>62253.255090999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>17.292571</v>
+        <v>17.292570999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1408.430000</v>
+        <v>1408.43</v>
       </c>
       <c r="BV5" s="1">
-        <v>-793.792000</v>
+        <v>-793.79200000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>62263.966204</v>
+        <v>62263.966203999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>17.295546</v>
+        <v>17.295546000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1569.990000</v>
+        <v>1569.99</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1024.390000</v>
+        <v>-1024.3900000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>62275.564760</v>
+        <v>62275.564760000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>17.298768</v>
+        <v>17.298767999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1976.320000</v>
+        <v>1976.32</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1563.220000</v>
+        <v>-1563.22</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>62104.403737</v>
+        <v>62104.403737000001</v>
       </c>
       <c r="B6" s="1">
         <v>17.251223</v>
       </c>
       <c r="C6" s="1">
-        <v>902.083000</v>
+        <v>902.08299999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-183.886000</v>
+        <v>-183.886</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>62114.502280</v>
+        <v>62114.502280000001</v>
       </c>
       <c r="G6" s="1">
-        <v>17.254028</v>
+        <v>17.254028000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>917.521000</v>
+        <v>917.52099999999996</v>
       </c>
       <c r="I6" s="1">
-        <v>-156.976000</v>
+        <v>-156.976</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>62124.686108</v>
+        <v>62124.686108000002</v>
       </c>
       <c r="L6" s="1">
         <v>17.256857</v>
       </c>
       <c r="M6" s="1">
-        <v>938.398000</v>
+        <v>938.39800000000002</v>
       </c>
       <c r="N6" s="1">
-        <v>-114.299000</v>
+        <v>-114.29900000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>62134.891822</v>
+        <v>62134.891821999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>17.259692</v>
+        <v>17.259692000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>945.095000</v>
+        <v>945.09500000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-100.508000</v>
+        <v>-100.508</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>62145.097970</v>
+        <v>62145.097970000003</v>
       </c>
       <c r="V6" s="1">
-        <v>17.262527</v>
+        <v>17.262526999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>951.550000</v>
+        <v>951.55</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.507800</v>
+        <v>-87.507800000000003</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>62155.922194</v>
+        <v>62155.922193999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>17.265534</v>
+        <v>17.265533999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>959.232000</v>
+        <v>959.23199999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.082000</v>
+        <v>-79.081999999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>62166.463636</v>
@@ -1599,118 +2015,118 @@
         <v>17.268462</v>
       </c>
       <c r="AG6" s="1">
-        <v>964.570000</v>
+        <v>964.57</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.224300</v>
+        <v>-79.224299999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>62176.906902</v>
+        <v>62176.906902000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>17.271363</v>
+        <v>17.271363000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.881000</v>
+        <v>972.88099999999997</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.298800</v>
+        <v>-87.2988</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>62187.543114</v>
       </c>
       <c r="AP6" s="1">
-        <v>17.274318</v>
+        <v>17.274318000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.221000</v>
+        <v>982.221</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.307000</v>
+        <v>-102.307</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>62198.554796</v>
+        <v>62198.554795999997</v>
       </c>
       <c r="AU6" s="1">
         <v>17.277376</v>
       </c>
       <c r="AV6" s="1">
-        <v>993.668000</v>
+        <v>993.66800000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.836000</v>
+        <v>-123.836</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>62209.935035</v>
+        <v>62209.935035000002</v>
       </c>
       <c r="AZ6" s="1">
         <v>17.280538</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.300000</v>
+        <v>1003.3</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.568000</v>
+        <v>-142.56800000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>62220.956140</v>
+        <v>62220.956140000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>17.283599</v>
+        <v>17.283598999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1048.610000</v>
+        <v>1048.6099999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-227.382000</v>
+        <v>-227.38200000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>62231.945966</v>
+        <v>62231.945965999999</v>
       </c>
       <c r="BJ6" s="1">
         <v>17.286652</v>
       </c>
       <c r="BK6" s="1">
-        <v>1128.560000</v>
+        <v>1128.56</v>
       </c>
       <c r="BL6" s="1">
-        <v>-363.134000</v>
+        <v>-363.13400000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>62242.881759</v>
+        <v>62242.881759000004</v>
       </c>
       <c r="BO6" s="1">
-        <v>17.289689</v>
+        <v>17.289688999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1260.800000</v>
+        <v>1260.8</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-571.722000</v>
+        <v>-571.72199999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>62253.669746</v>
@@ -1719,1405 +2135,1405 @@
         <v>17.292686</v>
       </c>
       <c r="BU6" s="1">
-        <v>1408.510000</v>
+        <v>1408.51</v>
       </c>
       <c r="BV6" s="1">
-        <v>-793.826000</v>
+        <v>-793.82600000000002</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>62264.388329</v>
+        <v>62264.388329000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>17.295663</v>
+        <v>17.295663000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1570.110000</v>
+        <v>1570.11</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1024.480000</v>
+        <v>-1024.48</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>62276.095860</v>
+        <v>62276.095860000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>17.298916</v>
+        <v>17.298915999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>1974.720000</v>
+        <v>1974.72</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1562.550000</v>
+        <v>-1562.55</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>62104.745942</v>
+        <v>62104.745942000001</v>
       </c>
       <c r="B7" s="1">
-        <v>17.251318</v>
+        <v>17.251318000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>902.106000</v>
+        <v>902.10599999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-183.730000</v>
+        <v>-183.73</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>62114.846474</v>
+        <v>62114.846473999998</v>
       </c>
       <c r="G7" s="1">
-        <v>17.254124</v>
+        <v>17.254124000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>917.735000</v>
+        <v>917.73500000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-157.097000</v>
+        <v>-157.09700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>62125.032347</v>
       </c>
       <c r="L7" s="1">
-        <v>17.256953</v>
+        <v>17.256952999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>938.512000</v>
+        <v>938.51199999999994</v>
       </c>
       <c r="N7" s="1">
-        <v>-114.258000</v>
+        <v>-114.258</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>62135.558946</v>
+        <v>62135.558945999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>17.259877</v>
+        <v>17.259876999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>945.046000</v>
+        <v>945.04600000000005</v>
       </c>
       <c r="S7" s="1">
-        <v>-100.508000</v>
+        <v>-100.508</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>62145.782943</v>
+        <v>62145.782942999998</v>
       </c>
       <c r="V7" s="1">
-        <v>17.262717</v>
+        <v>17.262716999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>951.360000</v>
+        <v>951.36</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.440600</v>
+        <v>-87.440600000000003</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>62156.271347</v>
+        <v>62156.271347000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>17.265631</v>
+        <v>17.265630999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>959.253000</v>
+        <v>959.25300000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.088000</v>
+        <v>-79.087999999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>62166.806371</v>
+        <v>62166.806370999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>17.268557</v>
+        <v>17.268557000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>964.657000</v>
+        <v>964.65700000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.343800</v>
+        <v>-79.343800000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>62177.254102</v>
+        <v>62177.254101999999</v>
       </c>
       <c r="AK7" s="1">
         <v>17.271459</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.889000</v>
+        <v>972.88900000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.307000</v>
+        <v>-87.307000000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>62188.210729</v>
+        <v>62188.210728999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>17.274503</v>
+        <v>17.274502999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.225000</v>
+        <v>982.22500000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.315000</v>
+        <v>-102.315</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>62199.226377</v>
+        <v>62199.226376999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>17.277563</v>
+        <v>17.277563000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>993.685000</v>
+        <v>993.68499999999995</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.827000</v>
+        <v>-123.827</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>62210.336266</v>
+        <v>62210.336265999998</v>
       </c>
       <c r="AZ7" s="1">
         <v>17.280649</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.563000</v>
+        <v>-142.56299999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>62221.316700</v>
+        <v>62221.316700000003</v>
       </c>
       <c r="BE7" s="1">
-        <v>17.283699</v>
+        <v>17.283698999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1048.620000</v>
+        <v>1048.6199999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-227.381000</v>
+        <v>-227.381</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>62232.324414</v>
+        <v>62232.324414000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>17.286757</v>
+        <v>17.286757000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1128.550000</v>
+        <v>1128.55</v>
       </c>
       <c r="BL7" s="1">
-        <v>-363.079000</v>
+        <v>-363.07900000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>62243.278564</v>
       </c>
       <c r="BO7" s="1">
-        <v>17.289800</v>
+        <v>17.2898</v>
       </c>
       <c r="BP7" s="1">
-        <v>1260.830000</v>
+        <v>1260.83</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-571.733000</v>
+        <v>-571.73299999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>62254.108742</v>
+        <v>62254.108741999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>17.292808</v>
+        <v>17.292808000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1408.550000</v>
+        <v>1408.55</v>
       </c>
       <c r="BV7" s="1">
-        <v>-793.887000</v>
+        <v>-793.88699999999994</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>62264.811410</v>
+        <v>62264.811410000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>17.295781</v>
+        <v>17.295781000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1570.140000</v>
+        <v>1570.14</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1024.450000</v>
+        <v>-1024.45</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>62276.612194</v>
+        <v>62276.612194000001</v>
       </c>
       <c r="CD7" s="1">
         <v>17.299059</v>
       </c>
       <c r="CE7" s="1">
-        <v>1975.270000</v>
+        <v>1975.27</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1563.010000</v>
+        <v>-1563.01</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>62105.083717</v>
+        <v>62105.083717000001</v>
       </c>
       <c r="B8" s="1">
-        <v>17.251412</v>
+        <v>17.251411999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>901.934000</v>
+        <v>901.93399999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>-183.831000</v>
+        <v>-183.83099999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>62115.190728</v>
+        <v>62115.190728000001</v>
       </c>
       <c r="G8" s="1">
-        <v>17.254220</v>
+        <v>17.25422</v>
       </c>
       <c r="H8" s="1">
-        <v>917.271000</v>
+        <v>917.27099999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-156.875000</v>
+        <v>-156.875</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>62125.726714</v>
+        <v>62125.726713999997</v>
       </c>
       <c r="L8" s="1">
-        <v>17.257146</v>
+        <v>17.257145999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>938.377000</v>
+        <v>938.37699999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-114.295000</v>
+        <v>-114.295</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>62135.940865</v>
+        <v>62135.940864999997</v>
       </c>
       <c r="Q8" s="1">
-        <v>17.259984</v>
+        <v>17.259983999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>945.082000</v>
+        <v>945.08199999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-100.514000</v>
+        <v>-100.514</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>62146.126265</v>
+        <v>62146.126264999999</v>
       </c>
       <c r="V8" s="1">
-        <v>17.262813</v>
+        <v>17.262813000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>951.421000</v>
+        <v>951.42100000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.393800</v>
+        <v>-87.393799999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>62156.621057</v>
+        <v>62156.621056999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>17.265728</v>
+        <v>17.265727999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>959.223000</v>
+        <v>959.22299999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.169200</v>
+        <v>-79.169200000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>62167.150136</v>
+        <v>62167.150135999997</v>
       </c>
       <c r="AF8" s="1">
         <v>17.268653</v>
       </c>
       <c r="AG8" s="1">
-        <v>964.602000</v>
+        <v>964.60199999999998</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.228000</v>
+        <v>-79.227999999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>62177.923702</v>
       </c>
       <c r="AK8" s="1">
-        <v>17.271645</v>
+        <v>17.271644999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.896000</v>
+        <v>972.89599999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.315900</v>
+        <v>-87.315899999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>62188.624392</v>
+        <v>62188.624391999998</v>
       </c>
       <c r="AP8" s="1">
         <v>17.274618</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.243000</v>
+        <v>982.24300000000005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.290000</v>
+        <v>-102.29</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>62199.671785</v>
+        <v>62199.671784999999</v>
       </c>
       <c r="AU8" s="1">
         <v>17.277687</v>
       </c>
       <c r="AV8" s="1">
-        <v>993.665000</v>
+        <v>993.66499999999996</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.824000</v>
+        <v>-123.824</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>62210.719211</v>
+        <v>62210.719211000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>17.280755</v>
+        <v>17.280754999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.553000</v>
+        <v>-142.553</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>62221.677787</v>
+        <v>62221.677787000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>17.283799</v>
+        <v>17.283798999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1048.610000</v>
+        <v>1048.6099999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-227.402000</v>
+        <v>-227.40199999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>62232.699884</v>
+        <v>62232.699884000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>17.286861</v>
+        <v>17.286860999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1128.610000</v>
+        <v>1128.6099999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-363.137000</v>
+        <v>-363.137</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>62243.702142</v>
+        <v>62243.702142000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>17.289917</v>
+        <v>17.289916999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-571.704000</v>
+        <v>-571.70399999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>62254.535296</v>
+        <v>62254.535296000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>17.292926</v>
+        <v>17.292926000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1408.660000</v>
+        <v>1408.66</v>
       </c>
       <c r="BV8" s="1">
-        <v>-793.881000</v>
+        <v>-793.88099999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>62265.234466</v>
+        <v>62265.234466000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>17.295898</v>
+        <v>17.295898000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1570.170000</v>
+        <v>1570.17</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1024.400000</v>
+        <v>-1024.4000000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>62277.164739</v>
       </c>
       <c r="CD8" s="1">
-        <v>17.299212</v>
+        <v>17.299212000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1976.320000</v>
+        <v>1976.32</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1563.000000</v>
+        <v>-1563</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>62105.767735</v>
+        <v>62105.767735000001</v>
       </c>
       <c r="B9" s="1">
-        <v>17.251602</v>
+        <v>17.251601999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>902.132000</v>
+        <v>902.13199999999995</v>
       </c>
       <c r="D9" s="1">
-        <v>-183.914000</v>
+        <v>-183.91399999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>62115.883607</v>
+        <v>62115.883607000003</v>
       </c>
       <c r="G9" s="1">
-        <v>17.254412</v>
+        <v>17.254411999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>917.472000</v>
+        <v>917.47199999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-157.616000</v>
+        <v>-157.61600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>62126.076393</v>
+        <v>62126.076393000003</v>
       </c>
       <c r="L9" s="1">
-        <v>17.257243</v>
+        <v>17.257242999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>938.409000</v>
+        <v>938.40899999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-114.249000</v>
+        <v>-114.249</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>62136.287563</v>
+        <v>62136.287562999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>17.260080</v>
+        <v>17.260079999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>945.095000</v>
+        <v>945.09500000000003</v>
       </c>
       <c r="S9" s="1">
-        <v>-100.546000</v>
+        <v>-100.54600000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>62146.476353</v>
+        <v>62146.476352999998</v>
       </c>
       <c r="V9" s="1">
-        <v>17.262910</v>
+        <v>17.262910000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>951.378000</v>
+        <v>951.37800000000004</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.429600</v>
+        <v>-87.429599999999994</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>62157.280210</v>
+        <v>62157.280209999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>17.265911</v>
+        <v>17.265910999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>959.207000</v>
+        <v>959.20699999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.156100</v>
+        <v>-79.156099999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>62167.815730</v>
+        <v>62167.815730000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>17.268838</v>
+        <v>17.268837999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>964.762000</v>
+        <v>964.76199999999994</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.327700</v>
+        <v>-79.327699999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>62178.299209</v>
+        <v>62178.299208999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>17.271750</v>
+        <v>17.271750000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>972.901000</v>
+        <v>972.90099999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.301600</v>
+        <v>-87.301599999999993</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>62189.004850</v>
+        <v>62189.004849999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>17.274724</v>
+        <v>17.274723999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.251000</v>
+        <v>982.25099999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.296000</v>
+        <v>-102.29600000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>62200.037337</v>
+        <v>62200.037337000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>17.277788</v>
+        <v>17.277788000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>993.658000</v>
+        <v>993.65800000000002</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.816000</v>
+        <v>-123.816</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>62211.076793</v>
       </c>
       <c r="AZ9" s="1">
-        <v>17.280855</v>
+        <v>17.280854999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.300000</v>
+        <v>1003.3</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.563000</v>
+        <v>-142.56299999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>62222.107819</v>
+        <v>62222.107818999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>17.283919</v>
+        <v>17.283919000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1048.630000</v>
+        <v>1048.6300000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-227.381000</v>
+        <v>-227.381</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>62233.133388</v>
+        <v>62233.133388000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>17.286981</v>
+        <v>17.286981000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1128.560000</v>
+        <v>1128.56</v>
       </c>
       <c r="BL9" s="1">
-        <v>-363.113000</v>
+        <v>-363.113</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>62244.098477</v>
       </c>
       <c r="BO9" s="1">
-        <v>17.290027</v>
+        <v>17.290026999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1260.760000</v>
+        <v>1260.76</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-571.667000</v>
+        <v>-571.66700000000003</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>62254.946944</v>
+        <v>62254.946944000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>17.293041</v>
+        <v>17.293040999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1408.750000</v>
+        <v>1408.75</v>
       </c>
       <c r="BV9" s="1">
-        <v>-793.918000</v>
+        <v>-793.91800000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>62265.648626</v>
+        <v>62265.648626000002</v>
       </c>
       <c r="BY9" s="1">
         <v>17.296014</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1570.100000</v>
+        <v>1570.1</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1024.400000</v>
+        <v>-1024.4000000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>62277.693473</v>
+        <v>62277.693472999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>17.299359</v>
+        <v>17.299358999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1974.850000</v>
+        <v>1974.85</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1562.630000</v>
+        <v>-1562.63</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>62106.111924</v>
+        <v>62106.111923999997</v>
       </c>
       <c r="B10" s="1">
-        <v>17.251698</v>
+        <v>17.251698000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>901.935000</v>
+        <v>901.93499999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>-183.699000</v>
+        <v>-183.69900000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>62116.229091</v>
+        <v>62116.229091000001</v>
       </c>
       <c r="G10" s="1">
-        <v>17.254508</v>
+        <v>17.254508000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>917.160000</v>
+        <v>917.16</v>
       </c>
       <c r="I10" s="1">
-        <v>-156.879000</v>
+        <v>-156.87899999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>62126.422136</v>
+        <v>62126.422136000001</v>
       </c>
       <c r="L10" s="1">
-        <v>17.257339</v>
+        <v>17.257339000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>938.411000</v>
+        <v>938.41099999999994</v>
       </c>
       <c r="N10" s="1">
-        <v>-114.157000</v>
+        <v>-114.157</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>62136.945756</v>
+        <v>62136.945756000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>17.260263</v>
+        <v>17.260262999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>945.019000</v>
+        <v>945.01900000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-100.566000</v>
+        <v>-100.566</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>62147.127140</v>
+        <v>62147.127139999997</v>
       </c>
       <c r="V10" s="1">
-        <v>17.263091</v>
+        <v>17.263090999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>951.425000</v>
+        <v>951.42499999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.442900</v>
+        <v>-87.442899999999995</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>62157.667584</v>
+        <v>62157.667584000003</v>
       </c>
       <c r="AA10" s="1">
         <v>17.266019</v>
       </c>
       <c r="AB10" s="1">
-        <v>959.300000</v>
+        <v>959.3</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.119800</v>
+        <v>-79.119799999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>62168.172354</v>
+        <v>62168.172354000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>17.268937</v>
+        <v>17.268937000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>964.538000</v>
+        <v>964.53800000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.298900</v>
+        <v>-79.298900000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>62178.650353</v>
+        <v>62178.650352999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>17.271847</v>
+        <v>17.271847000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.886000</v>
+        <v>972.88599999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.316600</v>
+        <v>-87.316599999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>62189.365911</v>
+        <v>62189.365911000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>17.274824</v>
+        <v>17.274823999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.248000</v>
+        <v>982.24800000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.317000</v>
+        <v>-102.31699999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>62200.399911</v>
       </c>
       <c r="AU10" s="1">
-        <v>17.277889</v>
+        <v>17.277888999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>993.666000</v>
+        <v>993.66600000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.828000</v>
+        <v>-123.828</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>62211.496904</v>
       </c>
       <c r="AZ10" s="1">
-        <v>17.280971</v>
+        <v>17.280971000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.300000</v>
+        <v>1003.3</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.549000</v>
+        <v>-142.54900000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>62222.402442</v>
+        <v>62222.402441999999</v>
       </c>
       <c r="BE10" s="1">
         <v>17.284001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1048.620000</v>
+        <v>1048.6199999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-227.405000</v>
+        <v>-227.405</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>62233.474638</v>
       </c>
       <c r="BJ10" s="1">
-        <v>17.287076</v>
+        <v>17.287075999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1128.630000</v>
+        <v>1128.6300000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-363.086000</v>
+        <v>-363.08600000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>62244.516573</v>
+        <v>62244.516573000001</v>
       </c>
       <c r="BO10" s="1">
         <v>17.290143</v>
       </c>
       <c r="BP10" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-571.688000</v>
+        <v>-571.68799999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>62255.377015</v>
+        <v>62255.377014999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.293160</v>
+        <v>17.29316</v>
       </c>
       <c r="BU10" s="1">
-        <v>1408.790000</v>
+        <v>1408.79</v>
       </c>
       <c r="BV10" s="1">
-        <v>-793.828000</v>
+        <v>-793.82799999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>62266.100017</v>
+        <v>62266.100016999997</v>
       </c>
       <c r="BY10" s="1">
         <v>17.296139</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1570.100000</v>
+        <v>1570.1</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1024.460000</v>
+        <v>-1024.46</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>62278.215294</v>
+        <v>62278.215294000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>17.299504</v>
+        <v>17.299503999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1974.730000</v>
+        <v>1974.73</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1564.410000</v>
+        <v>-1564.41</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>62106.453669</v>
+        <v>62106.453669000002</v>
       </c>
       <c r="B11" s="1">
-        <v>17.251793</v>
+        <v>17.251792999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>902.024000</v>
+        <v>902.024</v>
       </c>
       <c r="D11" s="1">
-        <v>-183.909000</v>
+        <v>-183.90899999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>62116.577015</v>
+        <v>62116.577015000003</v>
       </c>
       <c r="G11" s="1">
-        <v>17.254605</v>
+        <v>17.254605000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>917.348000</v>
+        <v>917.34799999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-156.676000</v>
+        <v>-156.67599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>62127.081784</v>
+        <v>62127.081784000002</v>
       </c>
       <c r="L11" s="1">
-        <v>17.257523</v>
+        <v>17.257522999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>938.349000</v>
+        <v>938.34900000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-114.461000</v>
+        <v>-114.461</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>62137.331152</v>
+        <v>62137.331151999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>17.260370</v>
+        <v>17.260370000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>944.988000</v>
+        <v>944.98800000000006</v>
       </c>
       <c r="S11" s="1">
-        <v>-100.593000</v>
+        <v>-100.593</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>62147.506541</v>
+        <v>62147.506541000002</v>
       </c>
       <c r="V11" s="1">
-        <v>17.263196</v>
+        <v>17.263196000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>951.450000</v>
+        <v>951.45</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.369300</v>
+        <v>-87.369299999999996</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>62158.017759</v>
+        <v>62158.017759000002</v>
       </c>
       <c r="AA11" s="1">
         <v>17.266116</v>
       </c>
       <c r="AB11" s="1">
-        <v>959.242000</v>
+        <v>959.24199999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.164500</v>
+        <v>-79.164500000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>62168.527503</v>
+        <v>62168.527502999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>17.269035</v>
+        <v>17.269034999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>964.591000</v>
+        <v>964.59100000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.316200</v>
+        <v>-79.316199999999995</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>62178.998531</v>
+        <v>62178.998530999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>17.271944</v>
+        <v>17.271944000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.914000</v>
+        <v>972.91399999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.288600</v>
+        <v>-87.288600000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>62189.788040</v>
+        <v>62189.788039999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>17.274941</v>
+        <v>17.274940999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.258000</v>
+        <v>982.25800000000004</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.296000</v>
+        <v>-102.29600000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>62200.835895</v>
+        <v>62200.835894999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>17.278010</v>
+        <v>17.278009999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>993.671000</v>
+        <v>993.67100000000005</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.826000</v>
+        <v>-123.82599999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>62211.795000</v>
+        <v>62211.794999999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>17.281054</v>
+        <v>17.281054000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.548000</v>
+        <v>-142.548</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>62222.758570</v>
+        <v>62222.758569999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>17.284100</v>
+        <v>17.284099999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1048.620000</v>
+        <v>1048.6199999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-227.393000</v>
+        <v>-227.393</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>62233.852091</v>
+        <v>62233.852091000001</v>
       </c>
       <c r="BJ11" s="1">
         <v>17.287181</v>
       </c>
       <c r="BK11" s="1">
-        <v>1128.560000</v>
+        <v>1128.56</v>
       </c>
       <c r="BL11" s="1">
-        <v>-363.175000</v>
+        <v>-363.17500000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>62244.912876</v>
+        <v>62244.912876000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>17.290254</v>
+        <v>17.290254000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1260.850000</v>
+        <v>1260.8499999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-571.728000</v>
+        <v>-571.72799999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>62255.805518</v>
+        <v>62255.805518000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>17.293279</v>
+        <v>17.293278999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1408.900000</v>
+        <v>1408.9</v>
       </c>
       <c r="BV11" s="1">
-        <v>-793.825000</v>
+        <v>-793.82500000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>62266.520623</v>
+        <v>62266.520622999997</v>
       </c>
       <c r="BY11" s="1">
         <v>17.296256</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1570.100000</v>
+        <v>1570.1</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1024.400000</v>
+        <v>-1024.4000000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>62278.730144</v>
+        <v>62278.730144000001</v>
       </c>
       <c r="CD11" s="1">
         <v>17.299647</v>
       </c>
       <c r="CE11" s="1">
-        <v>1976.320000</v>
+        <v>1976.32</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1563.890000</v>
+        <v>-1563.89</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>62107.101442</v>
+        <v>62107.101441999999</v>
       </c>
       <c r="B12" s="1">
         <v>17.251973</v>
       </c>
       <c r="C12" s="1">
-        <v>902.153000</v>
+        <v>902.15300000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-184.012000</v>
+        <v>-184.012</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>62117.239174</v>
+        <v>62117.239174000002</v>
       </c>
       <c r="G12" s="1">
-        <v>17.254789</v>
+        <v>17.254788999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>916.642000</v>
+        <v>916.64200000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-157.344000</v>
+        <v>-157.34399999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>62127.457752</v>
+        <v>62127.457752000002</v>
       </c>
       <c r="L12" s="1">
-        <v>17.257627</v>
+        <v>17.257626999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>938.437000</v>
+        <v>938.43700000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-114.455000</v>
+        <v>-114.455</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>62137.681292</v>
+        <v>62137.681292000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>17.260467</v>
+        <v>17.260466999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>944.994000</v>
+        <v>944.99400000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-100.524000</v>
+        <v>-100.524</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>62147.849277</v>
+        <v>62147.849277000001</v>
       </c>
       <c r="V12" s="1">
-        <v>17.263291</v>
+        <v>17.263290999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>951.287000</v>
+        <v>951.28700000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.366200</v>
+        <v>-87.366200000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>62158.366446</v>
@@ -3126,330 +3542,330 @@
         <v>17.266213</v>
       </c>
       <c r="AB12" s="1">
-        <v>959.272000</v>
+        <v>959.27200000000005</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.125300</v>
+        <v>-79.125299999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>62169.109834</v>
+        <v>62169.109834000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>17.269197</v>
+        <v>17.269196999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>964.602000</v>
+        <v>964.60199999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.368800</v>
+        <v>-79.368799999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>62179.429059</v>
+        <v>62179.429059000002</v>
       </c>
       <c r="AK12" s="1">
         <v>17.272064</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.872000</v>
+        <v>972.87199999999996</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.292500</v>
+        <v>-87.292500000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>62190.087093</v>
+        <v>62190.087093000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>17.275024</v>
+        <v>17.275023999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.251000</v>
+        <v>982.25099999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.288000</v>
+        <v>-102.288</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>62201.129065</v>
+        <v>62201.129065000001</v>
       </c>
       <c r="AU12" s="1">
         <v>17.278091</v>
       </c>
       <c r="AV12" s="1">
-        <v>993.672000</v>
+        <v>993.67200000000003</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.822000</v>
+        <v>-123.822</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>62212.154636</v>
+        <v>62212.154635999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>17.281154</v>
+        <v>17.281154000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.592000</v>
+        <v>-142.59200000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>62223.124617</v>
+        <v>62223.124617000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>17.284201</v>
+        <v>17.284200999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1048.630000</v>
+        <v>1048.6300000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-227.393000</v>
+        <v>-227.393</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>62234.226113</v>
+        <v>62234.226112999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>17.287285</v>
+        <v>17.287285000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1128.590000</v>
+        <v>1128.5899999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-363.089000</v>
+        <v>-363.089</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>62245.334174</v>
+        <v>62245.334174000003</v>
       </c>
       <c r="BO12" s="1">
         <v>17.290371</v>
       </c>
       <c r="BP12" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-571.713000</v>
+        <v>-571.71299999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>62256.219679</v>
+        <v>62256.219679000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>17.293394</v>
+        <v>17.293393999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1408.920000</v>
+        <v>1408.92</v>
       </c>
       <c r="BV12" s="1">
-        <v>-793.759000</v>
+        <v>-793.75900000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>62266.944671</v>
+        <v>62266.944670999997</v>
       </c>
       <c r="BY12" s="1">
         <v>17.296374</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1570.110000</v>
+        <v>1570.11</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1024.470000</v>
+        <v>-1024.47</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>62279.249456</v>
+        <v>62279.249455999998</v>
       </c>
       <c r="CD12" s="1">
         <v>17.299792</v>
       </c>
       <c r="CE12" s="1">
-        <v>1976.030000</v>
+        <v>1976.03</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1564.100000</v>
+        <v>-1564.1</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>62107.476914</v>
+        <v>62107.476913999999</v>
       </c>
       <c r="B13" s="1">
         <v>17.252077</v>
       </c>
       <c r="C13" s="1">
-        <v>902.055000</v>
+        <v>902.05499999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-183.941000</v>
+        <v>-183.941</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>62117.609685</v>
+        <v>62117.609685000003</v>
       </c>
       <c r="G13" s="1">
-        <v>17.254892</v>
+        <v>17.254892000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>917.660000</v>
+        <v>917.66</v>
       </c>
       <c r="I13" s="1">
-        <v>-157.031000</v>
+        <v>-157.03100000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>62127.803464</v>
+        <v>62127.803463999997</v>
       </c>
       <c r="L13" s="1">
-        <v>17.257723</v>
+        <v>17.257722999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>938.382000</v>
+        <v>938.38199999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-114.404000</v>
+        <v>-114.404</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>62138.031002</v>
+        <v>62138.031002000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>17.260564</v>
+        <v>17.260563999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>944.994000</v>
+        <v>944.99400000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-100.554000</v>
+        <v>-100.554</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>62148.195486</v>
+        <v>62148.195485999997</v>
       </c>
       <c r="V13" s="1">
-        <v>17.263388</v>
+        <v>17.263387999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>951.387000</v>
+        <v>951.38699999999994</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.337200</v>
+        <v>-87.337199999999996</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>62158.781604</v>
+        <v>62158.781604000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>17.266328</v>
+        <v>17.266328000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>959.276000</v>
+        <v>959.27599999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.146800</v>
+        <v>-79.146799999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>62169.219904</v>
+        <v>62169.219903999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>17.269228</v>
+        <v>17.269227999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>964.644000</v>
+        <v>964.64400000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.284000</v>
+        <v>-79.284000000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>62179.694924</v>
+        <v>62179.694924000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>17.272137</v>
+        <v>17.272137000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.859000</v>
+        <v>972.85900000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.302600</v>
+        <v>-87.302599999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>62190.444708</v>
+        <v>62190.444708000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>17.275124</v>
+        <v>17.275124000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.254000</v>
+        <v>982.25400000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.305000</v>
+        <v>-102.30500000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>62201.492134</v>
       </c>
       <c r="AU13" s="1">
-        <v>17.278192</v>
+        <v>17.278192000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>993.669000</v>
+        <v>993.66899999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.826000</v>
+        <v>-123.82599999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>62212.509735</v>
@@ -3458,270 +3874,270 @@
         <v>17.281253</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.300000</v>
+        <v>1003.3</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.552000</v>
+        <v>-142.55199999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>62223.846298</v>
+        <v>62223.846297999997</v>
       </c>
       <c r="BE13" s="1">
         <v>17.284402</v>
       </c>
       <c r="BF13" s="1">
-        <v>1048.600000</v>
+        <v>1048.5999999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-227.395000</v>
+        <v>-227.39500000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>62234.976027</v>
+        <v>62234.976026999997</v>
       </c>
       <c r="BJ13" s="1">
-        <v>17.287493</v>
+        <v>17.287493000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1128.590000</v>
+        <v>1128.5899999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-363.166000</v>
+        <v>-363.166</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>62245.732267</v>
+        <v>62245.732266999999</v>
       </c>
       <c r="BO13" s="1">
         <v>17.290481</v>
       </c>
       <c r="BP13" s="1">
-        <v>1260.860000</v>
+        <v>1260.8599999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-571.677000</v>
+        <v>-571.67700000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>62256.649725</v>
+        <v>62256.649725000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>17.293514</v>
+        <v>17.293513999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1409.050000</v>
+        <v>1409.05</v>
       </c>
       <c r="BV13" s="1">
-        <v>-793.687000</v>
+        <v>-793.68700000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>62267.393056</v>
+        <v>62267.393056000001</v>
       </c>
       <c r="BY13" s="1">
         <v>17.296498</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1570.040000</v>
+        <v>1570.04</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1024.480000</v>
+        <v>-1024.48</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>62280.106510</v>
+        <v>62280.106509999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>17.300030</v>
+        <v>17.30003</v>
       </c>
       <c r="CE13" s="1">
-        <v>1975.740000</v>
+        <v>1975.74</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1564.660000</v>
+        <v>-1564.66</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>62107.819154</v>
+        <v>62107.819153999997</v>
       </c>
       <c r="B14" s="1">
-        <v>17.252172</v>
+        <v>17.252172000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>902.194000</v>
+        <v>902.19399999999996</v>
       </c>
       <c r="D14" s="1">
-        <v>-183.906000</v>
+        <v>-183.90600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>62117.954404</v>
+        <v>62117.954403999996</v>
       </c>
       <c r="G14" s="1">
         <v>17.254987</v>
       </c>
       <c r="H14" s="1">
-        <v>916.626000</v>
+        <v>916.62599999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-157.163000</v>
+        <v>-157.16300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>62128.152678</v>
+        <v>62128.152677999999</v>
       </c>
       <c r="L14" s="1">
-        <v>17.257820</v>
+        <v>17.257819999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>938.599000</v>
+        <v>938.59900000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-114.441000</v>
+        <v>-114.441</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>62138.445627</v>
+        <v>62138.445627000001</v>
       </c>
       <c r="Q14" s="1">
         <v>17.260679</v>
       </c>
       <c r="R14" s="1">
-        <v>944.978000</v>
+        <v>944.97799999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-100.553000</v>
+        <v>-100.553</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>62148.623035</v>
+        <v>62148.623034999997</v>
       </c>
       <c r="V14" s="1">
         <v>17.263506</v>
       </c>
       <c r="W14" s="1">
-        <v>951.485000</v>
+        <v>951.48500000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.452200</v>
+        <v>-87.452200000000005</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>62159.068783</v>
+        <v>62159.068783000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>17.266408</v>
+        <v>17.266407999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>959.265000</v>
+        <v>959.26499999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.136300</v>
+        <v>-79.136300000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>62169.564625</v>
+        <v>62169.564624999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>17.269324</v>
+        <v>17.269324000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>964.574000</v>
+        <v>964.57399999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.311900</v>
+        <v>-79.311899999999994</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>62180.045090</v>
+        <v>62180.04509</v>
       </c>
       <c r="AK14" s="1">
-        <v>17.272235</v>
+        <v>17.272234999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.872000</v>
+        <v>972.87199999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.256000</v>
+        <v>-87.256</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>62190.808276</v>
+        <v>62190.808276000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>17.275225</v>
+        <v>17.275224999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.239000</v>
+        <v>982.23900000000003</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.321000</v>
+        <v>-102.321</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>62202.209813</v>
+        <v>62202.209813000001</v>
       </c>
       <c r="AU14" s="1">
         <v>17.278392</v>
       </c>
       <c r="AV14" s="1">
-        <v>993.672000</v>
+        <v>993.67200000000003</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.821000</v>
+        <v>-123.821</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>62213.231414</v>
+        <v>62213.231414000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>17.281453</v>
+        <v>17.281452999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.551000</v>
+        <v>-142.55099999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>62224.206392</v>
@@ -3730,557 +4146,557 @@
         <v>17.284502</v>
       </c>
       <c r="BF14" s="1">
-        <v>1048.630000</v>
+        <v>1048.6300000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-227.395000</v>
+        <v>-227.39500000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>62235.354475</v>
       </c>
       <c r="BJ14" s="1">
-        <v>17.287598</v>
+        <v>17.287597999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1128.540000</v>
+        <v>1128.54</v>
       </c>
       <c r="BL14" s="1">
-        <v>-363.101000</v>
+        <v>-363.101</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>62246.153371</v>
       </c>
       <c r="BO14" s="1">
-        <v>17.290598</v>
+        <v>17.290597999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1260.840000</v>
+        <v>1260.8399999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-571.690000</v>
+        <v>-571.69000000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>62257.389740</v>
+        <v>62257.389739999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>17.293719</v>
+        <v>17.293718999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1408.970000</v>
+        <v>1408.97</v>
       </c>
       <c r="BV14" s="1">
-        <v>-793.608000</v>
+        <v>-793.60799999999995</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>62268.194610</v>
+        <v>62268.194609999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>17.296721</v>
+        <v>17.296721000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1570.130000</v>
+        <v>1570.13</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1024.570000</v>
+        <v>-1024.57</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>62280.329741</v>
+        <v>62280.329741000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>17.300092</v>
+        <v>17.300091999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1976.090000</v>
+        <v>1976.09</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1563.210000</v>
+        <v>-1563.21</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>62108.162974</v>
+        <v>62108.162973999999</v>
       </c>
       <c r="B15" s="1">
         <v>17.252267</v>
       </c>
       <c r="C15" s="1">
-        <v>902.053000</v>
+        <v>902.053</v>
       </c>
       <c r="D15" s="1">
-        <v>-183.753000</v>
+        <v>-183.75299999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>62118.299620</v>
+        <v>62118.299619999998</v>
       </c>
       <c r="G15" s="1">
-        <v>17.255083</v>
+        <v>17.255082999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>917.265000</v>
+        <v>917.26499999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-156.857000</v>
+        <v>-156.857</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>62128.576231</v>
+        <v>62128.576230999999</v>
       </c>
       <c r="L15" s="1">
-        <v>17.257938</v>
+        <v>17.257937999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>938.369000</v>
+        <v>938.36900000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-114.327000</v>
+        <v>-114.327</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>62138.727881</v>
+        <v>62138.727880999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>17.260758</v>
+        <v>17.260757999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>944.962000</v>
+        <v>944.96199999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-100.554000</v>
+        <v>-100.554</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>62148.889884</v>
+        <v>62148.889883999997</v>
       </c>
       <c r="V15" s="1">
-        <v>17.263581</v>
+        <v>17.263580999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>951.462000</v>
+        <v>951.46199999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.417100</v>
+        <v>-87.417100000000005</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>62159.421465</v>
+        <v>62159.421464999999</v>
       </c>
       <c r="AA15" s="1">
         <v>17.266506</v>
       </c>
       <c r="AB15" s="1">
-        <v>959.233000</v>
+        <v>959.23299999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.184400</v>
+        <v>-79.184399999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>62169.909343</v>
+        <v>62169.909342999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.269419</v>
+        <v>17.269418999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>964.550000</v>
+        <v>964.55</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.301300</v>
+        <v>-79.301299999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>62180.393778</v>
+        <v>62180.393777999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>17.272332</v>
+        <v>17.272331999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.865000</v>
+        <v>972.86500000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.254300</v>
+        <v>-87.254300000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>62191.528467</v>
+        <v>62191.528466999996</v>
       </c>
       <c r="AP15" s="1">
-        <v>17.275425</v>
+        <v>17.275424999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.265000</v>
+        <v>982.26499999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.296000</v>
+        <v>-102.29600000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>62202.617556</v>
+        <v>62202.617555999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>17.278505</v>
+        <v>17.278504999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>993.670000</v>
+        <v>993.67</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.803000</v>
+        <v>-123.803</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>62213.609863</v>
+        <v>62213.609862999998</v>
       </c>
       <c r="AZ15" s="1">
         <v>17.281558</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.310000</v>
+        <v>1003.31</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.560000</v>
+        <v>-142.56</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>62224.568481</v>
+        <v>62224.568481000002</v>
       </c>
       <c r="BE15" s="1">
         <v>17.284602</v>
       </c>
       <c r="BF15" s="1">
-        <v>1048.630000</v>
+        <v>1048.6300000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-227.375000</v>
+        <v>-227.375</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>62236.038984</v>
+        <v>62236.038983999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>17.287789</v>
       </c>
       <c r="BK15" s="1">
-        <v>1128.600000</v>
+        <v>1128.5999999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-363.152000</v>
+        <v>-363.15199999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>62246.855707</v>
+        <v>62246.855707000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>17.290793</v>
+        <v>17.290793000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1260.800000</v>
+        <v>1260.8</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-571.723000</v>
+        <v>-571.72299999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>62257.522669</v>
+        <v>62257.522668999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>17.293756</v>
+        <v>17.293755999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1409.130000</v>
+        <v>1409.13</v>
       </c>
       <c r="BV15" s="1">
-        <v>-793.474000</v>
+        <v>-793.47400000000005</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>62268.663807</v>
+        <v>62268.663806999997</v>
       </c>
       <c r="BY15" s="1">
         <v>17.296851</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1570.110000</v>
+        <v>1570.11</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1024.390000</v>
+        <v>-1024.3900000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>62280.846542</v>
+        <v>62280.846541999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>17.300235</v>
+        <v>17.300235000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1976.260000</v>
+        <v>1976.26</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1563.670000</v>
+        <v>-1563.67</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>62108.583488</v>
+        <v>62108.583487999997</v>
       </c>
       <c r="B16" s="1">
-        <v>17.252384</v>
+        <v>17.252383999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>901.965000</v>
+        <v>901.96500000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-183.841000</v>
+        <v>-183.84100000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>62118.771316</v>
+        <v>62118.771315999998</v>
       </c>
       <c r="G16" s="1">
-        <v>17.255214</v>
+        <v>17.255213999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>917.503000</v>
+        <v>917.50300000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-156.954000</v>
+        <v>-156.95400000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>62128.852998</v>
+        <v>62128.852998000002</v>
       </c>
       <c r="L16" s="1">
         <v>17.258015</v>
       </c>
       <c r="M16" s="1">
-        <v>938.429000</v>
+        <v>938.42899999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-114.437000</v>
+        <v>-114.437</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>62139.076040</v>
+        <v>62139.07604</v>
       </c>
       <c r="Q16" s="1">
-        <v>17.260854</v>
+        <v>17.260853999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>944.906000</v>
+        <v>944.90599999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-100.592000</v>
+        <v>-100.592</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>62149.235595</v>
+        <v>62149.235594999998</v>
       </c>
       <c r="V16" s="1">
-        <v>17.263677</v>
+        <v>17.263677000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>951.401000</v>
+        <v>951.40099999999995</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.434100</v>
+        <v>-87.434100000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>62159.768669</v>
+        <v>62159.768668999997</v>
       </c>
       <c r="AA16" s="1">
-        <v>17.266602</v>
+        <v>17.266601999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>959.244000</v>
+        <v>959.24400000000003</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.237400</v>
+        <v>-79.237399999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>62170.596340</v>
+        <v>62170.596339999996</v>
       </c>
       <c r="AF16" s="1">
-        <v>17.269610</v>
+        <v>17.26961</v>
       </c>
       <c r="AG16" s="1">
-        <v>964.600000</v>
+        <v>964.6</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.248700</v>
+        <v>-79.248699999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>62181.092672</v>
+        <v>62181.092671999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>17.272526</v>
+        <v>17.272525999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.876000</v>
+        <v>972.87599999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.271200</v>
+        <v>-87.271199999999993</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>62191.888852</v>
+        <v>62191.888851999996</v>
       </c>
       <c r="AP16" s="1">
-        <v>17.275525</v>
+        <v>17.275524999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.238000</v>
+        <v>982.23800000000006</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.312000</v>
+        <v>-102.312</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>62202.983572</v>
+        <v>62202.983571999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>17.278607</v>
+        <v>17.278607000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>993.671000</v>
+        <v>993.67100000000005</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.829000</v>
+        <v>-123.82899999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>62213.987814</v>
       </c>
       <c r="AZ16" s="1">
-        <v>17.281663</v>
+        <v>17.281663000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.553000</v>
+        <v>-142.553</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>62225.240055</v>
+        <v>62225.240055000002</v>
       </c>
       <c r="BE16" s="1">
         <v>17.284789</v>
       </c>
       <c r="BF16" s="1">
-        <v>1048.630000</v>
+        <v>1048.6300000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-227.383000</v>
+        <v>-227.38300000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>62236.149100</v>
+        <v>62236.149100000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>17.287819</v>
+        <v>17.287818999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1128.530000</v>
+        <v>1128.53</v>
       </c>
       <c r="BL16" s="1">
-        <v>-363.136000</v>
+        <v>-363.13600000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>62246.987679</v>
+        <v>62246.987678999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>17.290830</v>
+        <v>17.29083</v>
       </c>
       <c r="BP16" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-571.708000</v>
+        <v>-571.70799999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>62257.938812</v>
@@ -4289,817 +4705,817 @@
         <v>17.293872</v>
       </c>
       <c r="BU16" s="1">
-        <v>1409.010000</v>
+        <v>1409.01</v>
       </c>
       <c r="BV16" s="1">
-        <v>-793.405000</v>
+        <v>-793.40499999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>62269.085437</v>
+        <v>62269.085437000002</v>
       </c>
       <c r="BY16" s="1">
         <v>17.296968</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1570.000000</v>
+        <v>1570</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1024.380000</v>
+        <v>-1024.3800000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>62281.398590</v>
+        <v>62281.398589999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>17.300388</v>
+        <v>17.300388000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>1975.640000</v>
+        <v>1975.64</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1564.480000</v>
+        <v>-1564.48</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>62108.864722</v>
+        <v>62108.864721999998</v>
       </c>
       <c r="B17" s="1">
-        <v>17.252462</v>
+        <v>17.252462000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>902.078000</v>
+        <v>902.07799999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-183.623000</v>
+        <v>-183.62299999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>62119.019812</v>
+        <v>62119.019811999999</v>
       </c>
       <c r="G17" s="1">
-        <v>17.255283</v>
+        <v>17.255282999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>917.205000</v>
+        <v>917.20500000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-157.112000</v>
+        <v>-157.11199999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>62129.197223</v>
+        <v>62129.197223000003</v>
       </c>
       <c r="L17" s="1">
-        <v>17.258110</v>
+        <v>17.258109999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>938.526000</v>
+        <v>938.52599999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-114.314000</v>
+        <v>-114.31399999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>62139.427705</v>
+        <v>62139.427705000002</v>
       </c>
       <c r="Q17" s="1">
         <v>17.260952</v>
       </c>
       <c r="R17" s="1">
-        <v>944.832000</v>
+        <v>944.83199999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-100.558000</v>
+        <v>-100.55800000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>62149.576087</v>
+        <v>62149.576087000001</v>
       </c>
       <c r="V17" s="1">
-        <v>17.263771</v>
+        <v>17.263770999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>951.470000</v>
+        <v>951.47</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.369100</v>
+        <v>-87.369100000000003</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>62160.466012</v>
+        <v>62160.466011999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>17.266796</v>
+        <v>17.266795999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>959.266000</v>
+        <v>959.26599999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.190900</v>
+        <v>-79.190899999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>62170.939071</v>
+        <v>62170.939071000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>17.269705</v>
+        <v>17.269704999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>964.632000</v>
+        <v>964.63199999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.335100</v>
+        <v>-79.335099999999997</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>62181.439952</v>
+        <v>62181.439952000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>17.272622</v>
+        <v>17.272621999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.877000</v>
+        <v>972.87699999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.268600</v>
+        <v>-87.268600000000006</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>62192.246675</v>
+        <v>62192.246675000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>17.275624</v>
+        <v>17.275624000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.248000</v>
+        <v>982.24800000000005</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.294000</v>
+        <v>-102.294</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>62203.662595</v>
+        <v>62203.662595000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>17.278795</v>
+        <v>17.278794999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>993.673000</v>
+        <v>993.673</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.820000</v>
+        <v>-123.82</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>62214.660415</v>
+        <v>62214.660414999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>17.281850</v>
+        <v>17.281849999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.300000</v>
+        <v>1003.3</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.567000</v>
+        <v>-142.56700000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>62225.677030</v>
+        <v>62225.677029999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>17.284910</v>
+        <v>17.28491</v>
       </c>
       <c r="BF17" s="1">
-        <v>1048.630000</v>
+        <v>1048.6300000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-227.393000</v>
+        <v>-227.393</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>62236.516600</v>
+        <v>62236.516600000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>17.287921</v>
+        <v>17.287921000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1128.590000</v>
+        <v>1128.5899999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-363.082000</v>
+        <v>-363.08199999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>62247.395385</v>
+        <v>62247.395385000003</v>
       </c>
       <c r="BO17" s="1">
-        <v>17.290943</v>
+        <v>17.290942999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1260.840000</v>
+        <v>1260.8399999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-571.699000</v>
+        <v>-571.69899999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>62258.362892</v>
+        <v>62258.362891999997</v>
       </c>
       <c r="BT17" s="1">
-        <v>17.293990</v>
+        <v>17.293990000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1408.990000</v>
+        <v>1408.99</v>
       </c>
       <c r="BV17" s="1">
-        <v>-793.361000</v>
+        <v>-793.36099999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>62269.534780</v>
+        <v>62269.534780000002</v>
       </c>
       <c r="BY17" s="1">
         <v>17.297093</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1570.110000</v>
+        <v>1570.11</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1024.460000</v>
+        <v>-1024.46</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>62281.928316</v>
+        <v>62281.928315999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>17.300536</v>
+        <v>17.300536000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1976.050000</v>
+        <v>1976.05</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1563.240000</v>
+        <v>-1563.24</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>62109.203488</v>
+        <v>62109.203487999999</v>
       </c>
       <c r="B18" s="1">
-        <v>17.252557</v>
+        <v>17.252556999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>902.084000</v>
+        <v>902.08399999999995</v>
       </c>
       <c r="D18" s="1">
-        <v>-183.857000</v>
+        <v>-183.857</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>62119.352131</v>
       </c>
       <c r="G18" s="1">
-        <v>17.255376</v>
+        <v>17.255375999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>917.183000</v>
+        <v>917.18299999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-156.756000</v>
+        <v>-156.756</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>62129.546446</v>
       </c>
       <c r="L18" s="1">
-        <v>17.258207</v>
+        <v>17.258206999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>938.576000</v>
+        <v>938.57600000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-114.340000</v>
+        <v>-114.34</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>62140.123095</v>
+        <v>62140.123095000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>17.261145</v>
+        <v>17.261144999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>944.856000</v>
+        <v>944.85599999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-100.492000</v>
+        <v>-100.492</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>62150.265785</v>
+        <v>62150.265785000003</v>
       </c>
       <c r="V18" s="1">
         <v>17.263963</v>
       </c>
       <c r="W18" s="1">
-        <v>951.471000</v>
+        <v>951.471</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.455200</v>
+        <v>-87.455200000000005</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>62160.815196</v>
+        <v>62160.815196000003</v>
       </c>
       <c r="AA18" s="1">
         <v>17.266893</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.319000</v>
+        <v>959.31899999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.263300</v>
+        <v>-79.263300000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>62171.289711</v>
+        <v>62171.289710999998</v>
       </c>
       <c r="AF18" s="1">
         <v>17.269803</v>
       </c>
       <c r="AG18" s="1">
-        <v>964.639000</v>
+        <v>964.63900000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.408500</v>
+        <v>-79.408500000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>62181.790015</v>
+        <v>62181.790014999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>17.272719</v>
+        <v>17.272718999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.868000</v>
+        <v>972.86800000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.269500</v>
+        <v>-87.269499999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>62192.921245</v>
+        <v>62192.921244999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>17.275811</v>
+        <v>17.275811000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.250000</v>
+        <v>982.25</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.290000</v>
+        <v>-102.29</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>62204.101587</v>
+        <v>62204.101586999997</v>
       </c>
       <c r="AU18" s="1">
         <v>17.278917</v>
       </c>
       <c r="AV18" s="1">
-        <v>993.669000</v>
+        <v>993.66899999999998</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.816000</v>
+        <v>-123.816</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>62215.071112</v>
+        <v>62215.071111999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>17.281964</v>
+        <v>17.281963999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.320000</v>
+        <v>1003.32</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.566000</v>
+        <v>-142.566</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>62226.039142</v>
+        <v>62226.039142000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>17.285011</v>
+        <v>17.285011000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1048.620000</v>
+        <v>1048.6199999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-227.404000</v>
+        <v>-227.404</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>62236.892103</v>
+        <v>62236.892102999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>17.288026</v>
+        <v>17.288025999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1128.580000</v>
+        <v>1128.58</v>
       </c>
       <c r="BL18" s="1">
-        <v>-363.154000</v>
+        <v>-363.154</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>62247.789672</v>
+        <v>62247.789671999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>17.291053</v>
+        <v>17.291053000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-571.683000</v>
+        <v>-571.68299999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>62258.785018</v>
+        <v>62258.785018000002</v>
       </c>
       <c r="BT18" s="1">
         <v>17.294107</v>
       </c>
       <c r="BU18" s="1">
-        <v>1408.900000</v>
+        <v>1408.9</v>
       </c>
       <c r="BV18" s="1">
-        <v>-793.280000</v>
+        <v>-793.28</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>62269.966300</v>
+        <v>62269.9663</v>
       </c>
       <c r="BY18" s="1">
-        <v>17.297213</v>
+        <v>17.297212999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1570.160000</v>
+        <v>1570.16</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1024.430000</v>
+        <v>-1024.43</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>62282.446635</v>
       </c>
       <c r="CD18" s="1">
-        <v>17.300680</v>
+        <v>17.30068</v>
       </c>
       <c r="CE18" s="1">
-        <v>1974.500000</v>
+        <v>1974.5</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1563.690000</v>
+        <v>-1563.69</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>62109.547215</v>
+        <v>62109.547214999999</v>
       </c>
       <c r="B19" s="1">
-        <v>17.252652</v>
+        <v>17.252652000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>902.283000</v>
+        <v>902.28300000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>-183.747000</v>
+        <v>-183.74700000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>62120.040083</v>
       </c>
       <c r="G19" s="1">
-        <v>17.255567</v>
+        <v>17.255566999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>917.134000</v>
+        <v>917.13400000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-157.289000</v>
+        <v>-157.28899999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>62130.242292</v>
+        <v>62130.242292000003</v>
       </c>
       <c r="L19" s="1">
-        <v>17.258401</v>
+        <v>17.258400999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>938.551000</v>
+        <v>938.55100000000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-114.474000</v>
+        <v>-114.474</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>62140.470790</v>
+        <v>62140.470789999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>17.261242</v>
+        <v>17.261241999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>944.862000</v>
+        <v>944.86199999999997</v>
       </c>
       <c r="S19" s="1">
-        <v>-100.485000</v>
+        <v>-100.485</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>62150.607529</v>
+        <v>62150.607529000001</v>
       </c>
       <c r="V19" s="1">
-        <v>17.264058</v>
+        <v>17.264057999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>951.376000</v>
+        <v>951.37599999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.491500</v>
+        <v>-87.491500000000002</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>62161.163421</v>
+        <v>62161.163420999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.266990</v>
+        <v>17.26699</v>
       </c>
       <c r="AB19" s="1">
-        <v>959.187000</v>
+        <v>959.18700000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.226400</v>
+        <v>-79.226399999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>62171.940578</v>
+        <v>62171.940578000002</v>
       </c>
       <c r="AF19" s="1">
         <v>17.269983</v>
       </c>
       <c r="AG19" s="1">
-        <v>964.444000</v>
+        <v>964.44399999999996</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.173700</v>
+        <v>-79.173699999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>62182.446720</v>
+        <v>62182.44672</v>
       </c>
       <c r="AK19" s="1">
-        <v>17.272902</v>
+        <v>17.272901999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.884000</v>
+        <v>972.88400000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.272400</v>
+        <v>-87.272400000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>62193.359726</v>
+        <v>62193.359726000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>17.275933</v>
+        <v>17.275932999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.249000</v>
+        <v>982.24900000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.302000</v>
+        <v>-102.30200000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>62204.469090</v>
+        <v>62204.469089999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>17.279019</v>
+        <v>17.279019000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>993.680000</v>
+        <v>993.68</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.833000</v>
+        <v>-123.833</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>62215.446548</v>
       </c>
       <c r="AZ19" s="1">
-        <v>17.282068</v>
+        <v>17.282067999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.300000</v>
+        <v>1003.3</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.555000</v>
+        <v>-142.55500000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>62226.403174</v>
+        <v>62226.403173999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>17.285112</v>
+        <v>17.285112000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1048.620000</v>
+        <v>1048.6199999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-227.378000</v>
+        <v>-227.37799999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>62237.317142</v>
       </c>
       <c r="BJ19" s="1">
-        <v>17.288144</v>
+        <v>17.288143999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1128.530000</v>
+        <v>1128.53</v>
       </c>
       <c r="BL19" s="1">
-        <v>-363.109000</v>
+        <v>-363.10899999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>62248.218248</v>
+        <v>62248.218247999997</v>
       </c>
       <c r="BO19" s="1">
         <v>17.291172</v>
       </c>
       <c r="BP19" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-571.731000</v>
+        <v>-571.73099999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>62259.195178</v>
+        <v>62259.195178000002</v>
       </c>
       <c r="BT19" s="1">
         <v>17.294221</v>
       </c>
       <c r="BU19" s="1">
-        <v>1408.810000</v>
+        <v>1408.81</v>
       </c>
       <c r="BV19" s="1">
-        <v>-793.218000</v>
+        <v>-793.21799999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>62270.386907</v>
       </c>
       <c r="BY19" s="1">
-        <v>17.297330</v>
+        <v>17.297329999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1570.040000</v>
+        <v>1570.04</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1024.530000</v>
+        <v>-1024.53</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>62282.988762</v>
+        <v>62282.988762000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>17.300830</v>
+        <v>17.300830000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1976.160000</v>
+        <v>1976.16</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1564.270000</v>
+        <v>-1564.27</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>62110.226767</v>
       </c>
@@ -5107,707 +5523,707 @@
         <v>17.252841</v>
       </c>
       <c r="C20" s="1">
-        <v>901.928000</v>
+        <v>901.928</v>
       </c>
       <c r="D20" s="1">
-        <v>-183.936000</v>
+        <v>-183.93600000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>62120.384306</v>
       </c>
       <c r="G20" s="1">
-        <v>17.255662</v>
+        <v>17.255662000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>916.802000</v>
+        <v>916.80200000000002</v>
       </c>
       <c r="I20" s="1">
-        <v>-156.700000</v>
+        <v>-156.69999999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>62130.594453</v>
+        <v>62130.594452999998</v>
       </c>
       <c r="L20" s="1">
-        <v>17.258498</v>
+        <v>17.258497999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>938.552000</v>
+        <v>938.55200000000002</v>
       </c>
       <c r="N20" s="1">
-        <v>-114.351000</v>
+        <v>-114.351</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>62140.818982</v>
+        <v>62140.818981999997</v>
       </c>
       <c r="Q20" s="1">
         <v>17.261339</v>
       </c>
       <c r="R20" s="1">
-        <v>944.872000</v>
+        <v>944.87199999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-100.520000</v>
+        <v>-100.52</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>62150.949274</v>
+        <v>62150.949273999999</v>
       </c>
       <c r="V20" s="1">
         <v>17.264153</v>
       </c>
       <c r="W20" s="1">
-        <v>951.488000</v>
+        <v>951.48800000000006</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.425700</v>
+        <v>-87.425700000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>62161.826072</v>
+        <v>62161.826072000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>17.267174</v>
+        <v>17.267174000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>959.300000</v>
+        <v>959.3</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.231800</v>
+        <v>-79.231800000000007</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>62172.320396</v>
+        <v>62172.320396000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>17.270089</v>
+        <v>17.270088999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>964.591000</v>
+        <v>964.59100000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.383300</v>
+        <v>-79.383300000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>62182.833134</v>
       </c>
       <c r="AK20" s="1">
-        <v>17.273009</v>
+        <v>17.273008999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.893000</v>
+        <v>972.89300000000003</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.304900</v>
+        <v>-87.304900000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>62193.719296</v>
+        <v>62193.719296000003</v>
       </c>
       <c r="AP20" s="1">
-        <v>17.276033</v>
+        <v>17.276033000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.239000</v>
+        <v>982.23900000000003</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.291000</v>
+        <v>-102.291</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>62204.831697</v>
+        <v>62204.831697000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>17.279120</v>
+        <v>17.279119999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>993.699000</v>
+        <v>993.69899999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.815000</v>
+        <v>-123.815</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>62215.828964</v>
       </c>
       <c r="AZ20" s="1">
-        <v>17.282175</v>
+        <v>17.282174999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.310000</v>
+        <v>1003.31</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.559000</v>
+        <v>-142.559</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>62226.834729</v>
+        <v>62226.834729000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>17.285232</v>
+        <v>17.285232000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1048.650000</v>
+        <v>1048.6500000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-227.371000</v>
+        <v>-227.37100000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>62237.640535</v>
+        <v>62237.640534999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.288233</v>
+        <v>17.288233000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1128.600000</v>
+        <v>1128.5999999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-363.108000</v>
+        <v>-363.108</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>62248.613033</v>
+        <v>62248.613033000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>17.291281</v>
+        <v>17.291281000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-571.721000</v>
+        <v>-571.721</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>62259.609833</v>
+        <v>62259.609833000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>17.294336</v>
+        <v>17.294336000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1408.750000</v>
+        <v>1408.75</v>
       </c>
       <c r="BV20" s="1">
-        <v>-793.165000</v>
+        <v>-793.16499999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>62270.809996</v>
+        <v>62270.809996000004</v>
       </c>
       <c r="BY20" s="1">
-        <v>17.297447</v>
+        <v>17.297446999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1570.230000</v>
+        <v>1570.23</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1024.530000</v>
+        <v>-1024.53</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>62283.527915</v>
+        <v>62283.527914999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>17.300980</v>
+        <v>17.300979999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1974.540000</v>
+        <v>1974.54</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1562.930000</v>
+        <v>-1562.93</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>62110.569997</v>
+        <v>62110.569996999999</v>
       </c>
       <c r="B21" s="1">
-        <v>17.252936</v>
+        <v>17.252935999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>902.190000</v>
+        <v>902.19</v>
       </c>
       <c r="D21" s="1">
-        <v>-183.962000</v>
+        <v>-183.96199999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>62120.732000</v>
+        <v>62120.732000000004</v>
       </c>
       <c r="G21" s="1">
-        <v>17.255759</v>
+        <v>17.255759000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>917.174000</v>
+        <v>917.17399999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-157.026000</v>
+        <v>-157.02600000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>62130.937685</v>
+        <v>62130.937684999997</v>
       </c>
       <c r="L21" s="1">
-        <v>17.258594</v>
+        <v>17.258593999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>938.388000</v>
+        <v>938.38800000000003</v>
       </c>
       <c r="N21" s="1">
-        <v>-114.496000</v>
+        <v>-114.496</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>62141.482133</v>
+        <v>62141.482132999998</v>
       </c>
       <c r="Q21" s="1">
         <v>17.261523</v>
       </c>
       <c r="R21" s="1">
-        <v>944.813000</v>
+        <v>944.81299999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-100.508000</v>
+        <v>-100.508</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>62151.610936</v>
+        <v>62151.610935999997</v>
       </c>
       <c r="V21" s="1">
         <v>17.264336</v>
       </c>
       <c r="W21" s="1">
-        <v>951.429000</v>
+        <v>951.42899999999997</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.437900</v>
+        <v>-87.437899999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>62162.207466</v>
       </c>
       <c r="AA21" s="1">
-        <v>17.267280</v>
+        <v>17.26728</v>
       </c>
       <c r="AB21" s="1">
-        <v>959.247000</v>
+        <v>959.24699999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.199700</v>
+        <v>-79.199700000000007</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>62172.665117</v>
+        <v>62172.665116999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>17.270185</v>
+        <v>17.270185000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>964.518000</v>
+        <v>964.51800000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.222100</v>
+        <v>-79.222099999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>62183.179807</v>
       </c>
       <c r="AK21" s="1">
-        <v>17.273106</v>
+        <v>17.273105999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.901000</v>
+        <v>972.90099999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.334100</v>
+        <v>-87.334100000000007</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>62194.075952</v>
+        <v>62194.075951999999</v>
       </c>
       <c r="AP21" s="1">
         <v>17.276132</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.238000</v>
+        <v>982.23800000000006</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.301000</v>
+        <v>-102.301</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>62205.261729</v>
+        <v>62205.261728999998</v>
       </c>
       <c r="AU21" s="1">
         <v>17.279239</v>
       </c>
       <c r="AV21" s="1">
-        <v>993.678000</v>
+        <v>993.678</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.810000</v>
+        <v>-123.81</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>62216.252557</v>
       </c>
       <c r="AZ21" s="1">
-        <v>17.282292</v>
+        <v>17.282292000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.549000</v>
+        <v>-142.54900000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>62227.126837</v>
+        <v>62227.126837000003</v>
       </c>
       <c r="BE21" s="1">
-        <v>17.285313</v>
+        <v>17.285312999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1048.640000</v>
+        <v>1048.6400000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-227.402000</v>
+        <v>-227.40199999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>62238.015522</v>
+        <v>62238.015522000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>17.288338</v>
       </c>
       <c r="BK21" s="1">
-        <v>1128.530000</v>
+        <v>1128.53</v>
       </c>
       <c r="BL21" s="1">
-        <v>-363.151000</v>
+        <v>-363.15100000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>62249.029671</v>
+        <v>62249.029670999997</v>
       </c>
       <c r="BO21" s="1">
         <v>17.291397</v>
       </c>
       <c r="BP21" s="1">
-        <v>1260.830000</v>
+        <v>1260.83</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-571.699000</v>
+        <v>-571.69899999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>62260.029449</v>
+        <v>62260.029449000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>17.294453</v>
+        <v>17.294453000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1408.680000</v>
+        <v>1408.68</v>
       </c>
       <c r="BV21" s="1">
-        <v>-793.210000</v>
+        <v>-793.21</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>62271.236058</v>
+        <v>62271.236058000002</v>
       </c>
       <c r="BY21" s="1">
         <v>17.297566</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1570.200000</v>
+        <v>1570.2</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1024.390000</v>
+        <v>-1024.3900000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>62284.068553</v>
+        <v>62284.068552999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>17.301130</v>
+        <v>17.301130000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1975.710000</v>
+        <v>1975.71</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1564.890000</v>
+        <v>-1564.89</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>62110.912207</v>
+        <v>62110.912207000001</v>
       </c>
       <c r="B22" s="1">
         <v>17.253031</v>
       </c>
       <c r="C22" s="1">
-        <v>902.018000</v>
+        <v>902.01800000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-184.098000</v>
+        <v>-184.09800000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>62121.388242</v>
+        <v>62121.388242000001</v>
       </c>
       <c r="G22" s="1">
         <v>17.255941</v>
       </c>
       <c r="H22" s="1">
-        <v>917.133000</v>
+        <v>917.13300000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-156.966000</v>
+        <v>-156.96600000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>62131.597394</v>
+        <v>62131.597393999997</v>
       </c>
       <c r="L22" s="1">
-        <v>17.258777</v>
+        <v>17.258776999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>938.430000</v>
+        <v>938.43</v>
       </c>
       <c r="N22" s="1">
-        <v>-114.463000</v>
+        <v>-114.46299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>62141.865045</v>
+        <v>62141.865044999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>17.261629</v>
+        <v>17.261628999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>944.719000</v>
+        <v>944.71900000000005</v>
       </c>
       <c r="S22" s="1">
-        <v>-100.392000</v>
+        <v>-100.392</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>62152.023608</v>
+        <v>62152.023608000003</v>
       </c>
       <c r="V22" s="1">
-        <v>17.264451</v>
+        <v>17.264451000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>951.392000</v>
+        <v>951.39200000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.420400</v>
+        <v>-87.420400000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>62162.556154</v>
+        <v>62162.556153999998</v>
       </c>
       <c r="AA22" s="1">
         <v>17.267377</v>
       </c>
       <c r="AB22" s="1">
-        <v>959.293000</v>
+        <v>959.29300000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.164200</v>
+        <v>-79.164199999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>62173.006363</v>
       </c>
       <c r="AF22" s="1">
-        <v>17.270280</v>
+        <v>17.27028</v>
       </c>
       <c r="AG22" s="1">
-        <v>964.649000</v>
+        <v>964.649</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.384100</v>
+        <v>-79.384100000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>62183.531967</v>
+        <v>62183.531967000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>17.273203</v>
+        <v>17.273202999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.900000</v>
+        <v>972.9</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.296200</v>
+        <v>-87.296199999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>62194.501513</v>
+        <v>62194.501513000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>17.276250</v>
+        <v>17.276250000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.244000</v>
+        <v>982.24400000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.307000</v>
+        <v>-102.307</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>62205.562304</v>
+        <v>62205.562303999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>17.279323</v>
+        <v>17.279323000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>993.646000</v>
+        <v>993.64599999999996</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.807000</v>
+        <v>-123.807</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>62216.544692</v>
+        <v>62216.544692000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>17.282374</v>
+        <v>17.282374000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.558000</v>
+        <v>-142.55799999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>62227.485940</v>
+        <v>62227.485939999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>17.285413</v>
+        <v>17.285412999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1048.640000</v>
+        <v>1048.6400000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-227.407000</v>
+        <v>-227.40700000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>62238.414791</v>
+        <v>62238.414791000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>17.288449</v>
       </c>
       <c r="BK22" s="1">
-        <v>1128.590000</v>
+        <v>1128.5899999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-363.121000</v>
+        <v>-363.12099999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>62249.427958</v>
@@ -5816,814 +6232,814 @@
         <v>17.291508</v>
       </c>
       <c r="BP22" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-571.714000</v>
+        <v>-571.71400000000006</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>62260.451577</v>
       </c>
       <c r="BT22" s="1">
-        <v>17.294570</v>
+        <v>17.29457</v>
       </c>
       <c r="BU22" s="1">
-        <v>1408.600000</v>
+        <v>1408.6</v>
       </c>
       <c r="BV22" s="1">
-        <v>-793.134000</v>
+        <v>-793.13400000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>62271.649225</v>
+        <v>62271.649225000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>17.297680</v>
+        <v>17.29768</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1570.090000</v>
+        <v>1570.09</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1024.390000</v>
+        <v>-1024.3900000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>62284.609687</v>
+        <v>62284.609686999996</v>
       </c>
       <c r="CD22" s="1">
-        <v>17.301280</v>
+        <v>17.301279999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>1975.520000</v>
+        <v>1975.52</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1562.560000</v>
+        <v>-1562.56</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>62111.568909</v>
+        <v>62111.568909000001</v>
       </c>
       <c r="B23" s="1">
         <v>17.253214</v>
       </c>
       <c r="C23" s="1">
-        <v>902.357000</v>
+        <v>902.35699999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-183.886000</v>
+        <v>-183.886</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>62121.765665</v>
+        <v>62121.765664999999</v>
       </c>
       <c r="G23" s="1">
-        <v>17.256046</v>
+        <v>17.256046000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>917.155000</v>
+        <v>917.15499999999997</v>
       </c>
       <c r="I23" s="1">
-        <v>-156.688000</v>
+        <v>-156.68799999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>62131.972373</v>
+        <v>62131.972372999997</v>
       </c>
       <c r="L23" s="1">
-        <v>17.258881</v>
+        <v>17.258880999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>938.440000</v>
+        <v>938.44</v>
       </c>
       <c r="N23" s="1">
-        <v>-114.304000</v>
+        <v>-114.304</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>62142.217206</v>
+        <v>62142.217206000001</v>
       </c>
       <c r="Q23" s="1">
         <v>17.261727</v>
       </c>
       <c r="R23" s="1">
-        <v>944.622000</v>
+        <v>944.62199999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-100.236000</v>
+        <v>-100.236</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>62152.324678</v>
+        <v>62152.324677999997</v>
       </c>
       <c r="V23" s="1">
-        <v>17.264535</v>
+        <v>17.264534999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>951.429000</v>
+        <v>951.42899999999997</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.469200</v>
+        <v>-87.469200000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>62162.906825</v>
+        <v>62162.906824999998</v>
       </c>
       <c r="AA23" s="1">
         <v>17.267474</v>
       </c>
       <c r="AB23" s="1">
-        <v>959.273000</v>
+        <v>959.27300000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.157800</v>
+        <v>-79.157799999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>62173.430443</v>
+        <v>62173.430442999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>17.270397</v>
+        <v>17.270396999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>964.639000</v>
+        <v>964.63900000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.385700</v>
+        <v>-79.3857</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>62183.956541</v>
       </c>
       <c r="AK23" s="1">
-        <v>17.273321</v>
+        <v>17.273320999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.898000</v>
+        <v>972.89800000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.329800</v>
+        <v>-87.329800000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>62194.798626</v>
+        <v>62194.798626000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>17.276333</v>
+        <v>17.276333000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.244000</v>
+        <v>982.24400000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.298000</v>
+        <v>-102.298</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>62205.925871</v>
+        <v>62205.925870999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>17.279424</v>
+        <v>17.279423999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>993.668000</v>
+        <v>993.66800000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.838000</v>
+        <v>-123.83799999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>62216.904289</v>
+        <v>62216.904288999998</v>
       </c>
       <c r="AZ23" s="1">
         <v>17.282473</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.535000</v>
+        <v>-142.535</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>62227.849507</v>
+        <v>62227.849506999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>17.285514</v>
+        <v>17.285513999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1048.640000</v>
+        <v>1048.6400000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-227.391000</v>
+        <v>-227.39099999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>62239.163252</v>
+        <v>62239.163251999998</v>
       </c>
       <c r="BJ23" s="1">
         <v>17.288656</v>
       </c>
       <c r="BK23" s="1">
-        <v>1128.530000</v>
+        <v>1128.53</v>
       </c>
       <c r="BL23" s="1">
-        <v>-363.102000</v>
+        <v>-363.10199999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>62249.849557</v>
+        <v>62249.849557000001</v>
       </c>
       <c r="BO23" s="1">
         <v>17.291625</v>
       </c>
       <c r="BP23" s="1">
-        <v>1260.800000</v>
+        <v>1260.8</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-571.688000</v>
+        <v>-571.68799999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>62260.861239</v>
+        <v>62260.861238999998</v>
       </c>
       <c r="BT23" s="1">
         <v>17.294684</v>
       </c>
       <c r="BU23" s="1">
-        <v>1408.520000</v>
+        <v>1408.52</v>
       </c>
       <c r="BV23" s="1">
-        <v>-793.220000</v>
+        <v>-793.22</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>62272.099110</v>
+        <v>62272.099110000003</v>
       </c>
       <c r="BY23" s="1">
         <v>17.297805</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1570.020000</v>
+        <v>1570.02</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1024.390000</v>
+        <v>-1024.3900000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>62285.465287</v>
+        <v>62285.465286999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>17.301518</v>
+        <v>17.301518000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1976.170000</v>
+        <v>1976.17</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1564.310000</v>
+        <v>-1564.31</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>62111.937436</v>
       </c>
       <c r="B24" s="1">
-        <v>17.253316</v>
+        <v>17.253316000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>902.242000</v>
+        <v>902.24199999999996</v>
       </c>
       <c r="D24" s="1">
-        <v>-183.796000</v>
+        <v>-183.79599999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>62122.109887</v>
+        <v>62122.109886999999</v>
       </c>
       <c r="G24" s="1">
-        <v>17.256142</v>
+        <v>17.256142000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>917.333000</v>
+        <v>917.33299999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-156.561000</v>
+        <v>-156.56100000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>62132.318049</v>
+        <v>62132.318049000001</v>
       </c>
       <c r="L24" s="1">
-        <v>17.258977</v>
+        <v>17.258977000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>938.410000</v>
+        <v>938.41</v>
       </c>
       <c r="N24" s="1">
-        <v>-114.410000</v>
+        <v>-114.41</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>62142.564405</v>
+        <v>62142.564404999997</v>
       </c>
       <c r="Q24" s="1">
         <v>17.261823</v>
       </c>
       <c r="R24" s="1">
-        <v>944.596000</v>
+        <v>944.596</v>
       </c>
       <c r="S24" s="1">
-        <v>-99.953800</v>
+        <v>-99.953800000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>62152.749254</v>
+        <v>62152.749254000002</v>
       </c>
       <c r="V24" s="1">
-        <v>17.264653</v>
+        <v>17.264652999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>951.467000</v>
+        <v>951.46699999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.446500</v>
+        <v>-87.4465</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>62163.319993</v>
+        <v>62163.319992999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>17.267589</v>
+        <v>17.267589000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>959.305000</v>
+        <v>959.30499999999995</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.126300</v>
+        <v>-79.126300000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>62173.704731</v>
+        <v>62173.704730999998</v>
       </c>
       <c r="AF24" s="1">
         <v>17.270474</v>
       </c>
       <c r="AG24" s="1">
-        <v>964.604000</v>
+        <v>964.60400000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.420500</v>
+        <v>-79.420500000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>62184.234338</v>
+        <v>62184.234338000002</v>
       </c>
       <c r="AK24" s="1">
         <v>17.273398</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.923000</v>
+        <v>972.923</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.336600</v>
+        <v>-87.336600000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>62195.158721</v>
       </c>
       <c r="AP24" s="1">
-        <v>17.276433</v>
+        <v>17.276433000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.244000</v>
+        <v>982.24400000000003</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.302000</v>
+        <v>-102.30200000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>62206.291423</v>
+        <v>62206.291423000002</v>
       </c>
       <c r="AU24" s="1">
         <v>17.279525</v>
       </c>
       <c r="AV24" s="1">
-        <v>993.684000</v>
+        <v>993.68399999999997</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.831000</v>
+        <v>-123.831</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>62217.262401</v>
       </c>
       <c r="AZ24" s="1">
-        <v>17.282573</v>
+        <v>17.282572999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.310000</v>
+        <v>1003.31</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.546000</v>
+        <v>-142.54599999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>62228.568978</v>
+        <v>62228.568978000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>17.285714</v>
+        <v>17.285713999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1048.640000</v>
+        <v>1048.6400000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-227.398000</v>
+        <v>-227.398</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>62239.567030</v>
+        <v>62239.567029999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>17.288769</v>
+        <v>17.288768999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1128.590000</v>
+        <v>1128.5899999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-363.134000</v>
+        <v>-363.13400000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>62250.253302</v>
+        <v>62250.253301999997</v>
       </c>
       <c r="BO24" s="1">
-        <v>17.291737</v>
+        <v>17.291737000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-571.679000</v>
+        <v>-571.67899999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>62261.273911</v>
+        <v>62261.273910999997</v>
       </c>
       <c r="BT24" s="1">
         <v>17.294798</v>
       </c>
       <c r="BU24" s="1">
-        <v>1408.470000</v>
+        <v>1408.47</v>
       </c>
       <c r="BV24" s="1">
-        <v>-793.227000</v>
+        <v>-793.22699999999998</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>62272.829207</v>
+        <v>62272.829207000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>17.298008</v>
+        <v>17.298007999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1570.180000</v>
+        <v>1570.18</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1024.450000</v>
+        <v>-1024.45</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>62285.686998</v>
+        <v>62285.686997999997</v>
       </c>
       <c r="CD24" s="1">
-        <v>17.301580</v>
+        <v>17.301580000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1976.280000</v>
+        <v>1976.28</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1564.190000</v>
+        <v>-1564.19</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>62112.280700</v>
+        <v>62112.280700000003</v>
       </c>
       <c r="B25" s="1">
         <v>17.253411</v>
       </c>
       <c r="C25" s="1">
-        <v>902.071000</v>
+        <v>902.07100000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-183.874000</v>
+        <v>-183.874</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>62122.456592</v>
+        <v>62122.456592000002</v>
       </c>
       <c r="G25" s="1">
         <v>17.256238</v>
       </c>
       <c r="H25" s="1">
-        <v>917.260000</v>
+        <v>917.26</v>
       </c>
       <c r="I25" s="1">
-        <v>-157.054000</v>
+        <v>-157.054</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>62132.663265</v>
+        <v>62132.663265000003</v>
       </c>
       <c r="L25" s="1">
-        <v>17.259073</v>
+        <v>17.259073000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>938.516000</v>
+        <v>938.51599999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-114.389000</v>
+        <v>-114.389</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>62142.987525</v>
+        <v>62142.987524999997</v>
       </c>
       <c r="Q25" s="1">
         <v>17.261941</v>
       </c>
       <c r="R25" s="1">
-        <v>944.604000</v>
+        <v>944.60400000000004</v>
       </c>
       <c r="S25" s="1">
-        <v>-99.605500</v>
+        <v>-99.605500000000006</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>62153.039414</v>
+        <v>62153.039413999999</v>
       </c>
       <c r="V25" s="1">
         <v>17.264733</v>
       </c>
       <c r="W25" s="1">
-        <v>951.410000</v>
+        <v>951.41</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.409700</v>
+        <v>-87.409700000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>62163.614120</v>
+        <v>62163.614119999998</v>
       </c>
       <c r="AA25" s="1">
         <v>17.267671</v>
       </c>
       <c r="AB25" s="1">
-        <v>959.228000</v>
+        <v>959.22799999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.136800</v>
+        <v>-79.136799999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>62174.047963</v>
+        <v>62174.047962999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>17.270569</v>
+        <v>17.270568999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>964.645000</v>
+        <v>964.64499999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.288900</v>
+        <v>-79.288899999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>62184.579548</v>
+        <v>62184.579548000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>17.273494</v>
+        <v>17.273493999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.880000</v>
+        <v>972.88</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.324900</v>
+        <v>-87.3249</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>62195.517293</v>
+        <v>62195.517292999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>17.276533</v>
+        <v>17.276533000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.249000</v>
+        <v>982.24900000000002</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.308000</v>
+        <v>-102.30800000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>62207.021999</v>
+        <v>62207.021998999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>17.279728</v>
+        <v>17.279727999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>993.668000</v>
+        <v>993.66800000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.823000</v>
+        <v>-123.82299999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>62217.981642</v>
+        <v>62217.981641999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>17.282773</v>
+        <v>17.282772999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.554000</v>
+        <v>-142.554</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>62228.929793</v>
+        <v>62228.929793000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>17.285814</v>
+        <v>17.285813999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1048.630000</v>
+        <v>1048.6300000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-227.373000</v>
+        <v>-227.37299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>62239.941476</v>
       </c>
       <c r="BJ25" s="1">
-        <v>17.288873</v>
+        <v>17.288872999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1128.510000</v>
+        <v>1128.51</v>
       </c>
       <c r="BL25" s="1">
-        <v>-363.136000</v>
+        <v>-363.13600000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>62250.670934</v>
+        <v>62250.670934000002</v>
       </c>
       <c r="BO25" s="1">
         <v>17.291853</v>
       </c>
       <c r="BP25" s="1">
-        <v>1260.760000</v>
+        <v>1260.76</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-571.731000</v>
+        <v>-571.73099999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>62262.018902</v>
+        <v>62262.018902000003</v>
       </c>
       <c r="BT25" s="1">
         <v>17.295005</v>
       </c>
       <c r="BU25" s="1">
-        <v>1408.350000</v>
+        <v>1408.35</v>
       </c>
       <c r="BV25" s="1">
-        <v>-793.339000</v>
+        <v>-793.33900000000006</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>62272.944279</v>
+        <v>62272.944279000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>17.298040</v>
+        <v>17.29804</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1570.280000</v>
+        <v>1570.28</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1024.400000</v>
+        <v>-1024.4000000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>62286.205318</v>
@@ -6632,272 +7048,273 @@
         <v>17.301724</v>
       </c>
       <c r="CE25" s="1">
-        <v>1975.700000</v>
+        <v>1975.7</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1562.790000</v>
+        <v>-1562.79</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>62112.621419</v>
+        <v>62112.621419000003</v>
       </c>
       <c r="B26" s="1">
-        <v>17.253506</v>
+        <v>17.253506000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>902.331000</v>
+        <v>902.33100000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>-184.045000</v>
+        <v>-184.04499999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>62122.876734</v>
+        <v>62122.876733999998</v>
       </c>
       <c r="G26" s="1">
-        <v>17.256355</v>
+        <v>17.256354999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>917.262000</v>
+        <v>917.26199999999994</v>
       </c>
       <c r="I26" s="1">
-        <v>-156.922000</v>
+        <v>-156.922</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>62133.091344</v>
       </c>
       <c r="L26" s="1">
-        <v>17.259192</v>
+        <v>17.259191999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>938.528000</v>
+        <v>938.52800000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-114.408000</v>
+        <v>-114.408</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>62143.265749</v>
+        <v>62143.265748999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>17.262018</v>
+        <v>17.262018000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>944.610000</v>
+        <v>944.61</v>
       </c>
       <c r="S26" s="1">
-        <v>-99.532900</v>
+        <v>-99.532899999999998</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>62153.382645</v>
+        <v>62153.382644999998</v>
       </c>
       <c r="V26" s="1">
-        <v>17.264829</v>
+        <v>17.264828999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>951.424000</v>
+        <v>951.42399999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.369400</v>
+        <v>-87.369399999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>62163.961321</v>
+        <v>62163.961321000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>17.267767</v>
+        <v>17.267766999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>959.259000</v>
+        <v>959.25900000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.157100</v>
+        <v>-79.1571</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>62174.389211</v>
+        <v>62174.389211000002</v>
       </c>
       <c r="AF26" s="1">
         <v>17.270664</v>
       </c>
       <c r="AG26" s="1">
-        <v>964.650000</v>
+        <v>964.65</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.214700</v>
+        <v>-79.214699999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>62185.281852</v>
       </c>
       <c r="AK26" s="1">
-        <v>17.273689</v>
+        <v>17.273689000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.916000</v>
+        <v>972.91600000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.322900</v>
+        <v>-87.322900000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>62196.243438</v>
+        <v>62196.243437999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>17.276734</v>
+        <v>17.276734000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.254000</v>
+        <v>982.25400000000002</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.293000</v>
+        <v>-102.29300000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>62207.387551</v>
       </c>
       <c r="AU26" s="1">
-        <v>17.279830</v>
+        <v>17.27983</v>
       </c>
       <c r="AV26" s="1">
-        <v>993.680000</v>
+        <v>993.68</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.832000</v>
+        <v>-123.83199999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>62218.377904</v>
+        <v>62218.377904000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>17.282883</v>
+        <v>17.282883000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.556000</v>
+        <v>-142.55600000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>62229.289393</v>
+        <v>62229.289392999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>17.285914</v>
+        <v>17.285913999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1048.640000</v>
+        <v>1048.6400000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-227.414000</v>
+        <v>-227.41399999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>62240.627442</v>
+        <v>62240.627441999997</v>
       </c>
       <c r="BJ26" s="1">
-        <v>17.289063</v>
+        <v>17.289062999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1128.520000</v>
+        <v>1128.52</v>
       </c>
       <c r="BL26" s="1">
-        <v>-363.078000</v>
+        <v>-363.07799999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>62251.413476</v>
+        <v>62251.413476000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>17.292059</v>
+        <v>17.292058999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1260.780000</v>
+        <v>1260.78</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-571.701000</v>
+        <v>-571.70100000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>62262.139430</v>
+        <v>62262.139430000003</v>
       </c>
       <c r="BT26" s="1">
-        <v>17.295039</v>
+        <v>17.295038999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1408.250000</v>
+        <v>1408.25</v>
       </c>
       <c r="BV26" s="1">
-        <v>-793.361000</v>
+        <v>-793.36099999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>62273.394182</v>
+        <v>62273.394182000004</v>
       </c>
       <c r="BY26" s="1">
-        <v>17.298165</v>
+        <v>17.298165000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1569.930000</v>
+        <v>1569.93</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1024.410000</v>
+        <v>-1024.4100000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>62286.725158</v>
+        <v>62286.725158000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>17.301868</v>
+        <v>17.301867999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1976.010000</v>
+        <v>1976.01</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1563.240000</v>
+        <v>-1563.24</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>